--- a/BUNDES_refereestats.xlsx
+++ b/BUNDES_refereestats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Advancedmetrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5707F010-F071-43CC-B578-3765FB4EEF84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DE35F8-B7E9-4714-919D-170E5D5F673A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,9 +209,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,9 +238,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -561,21 +557,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.42578125" bestFit="1" customWidth="1"/>
@@ -632,26 +628,26 @@
       <c r="E2" s="1">
         <v>35.555555555555557</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>5850</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>325</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>5450</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>302.77777777777777</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>44.388888888888886</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>38.444444444444443</v>
       </c>
-      <c r="L2" s="2">
-        <v>27.055555555555557</v>
+      <c r="L2" s="1">
+        <v>38.5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -670,26 +666,26 @@
       <c r="E3" s="1">
         <v>41.944444444444443</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>8150</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>452.77777777777777</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>7000</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>388.88888888888891</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>35.277777777777779</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>29.111111111111111</v>
       </c>
-      <c r="L3" s="2">
-        <v>20.388888888888889</v>
+      <c r="L3" s="1">
+        <v>29.944444444444443</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -708,26 +704,26 @@
       <c r="E4" s="1">
         <v>40.9375</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>7300</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>456.25</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>3600</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>225</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>40.25</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>39.9375</v>
       </c>
-      <c r="L4" s="2">
-        <v>28.625</v>
+      <c r="L4" s="1">
+        <v>34.1875</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -746,26 +742,26 @@
       <c r="E5" s="1">
         <v>42.8125</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>8700</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>543.75</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>7200</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>450</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>34.0625</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>41.1875</v>
       </c>
-      <c r="L5" s="2">
-        <v>26.125</v>
+      <c r="L5" s="1">
+        <v>29.9375</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -784,26 +780,26 @@
       <c r="E6" s="1">
         <v>50.3125</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>10750</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>671.875</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>7700</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>481.25</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>42</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>34.8125</v>
       </c>
-      <c r="L6" s="2">
-        <v>23.75</v>
+      <c r="L6" s="1">
+        <v>25.75</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -822,26 +818,26 @@
       <c r="E7" s="1">
         <v>54.333333333333336</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>11650</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>776.66666666666663</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>9250</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>616.66666666666663</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>36.866666666666667</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>51.6</v>
       </c>
-      <c r="L7" s="2">
-        <v>29.8</v>
+      <c r="L7" s="1">
+        <v>42.2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -860,26 +856,26 @@
       <c r="E8" s="1">
         <v>33.666666666666664</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>4850</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>323.33333333333331</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>3850</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>256.66666666666669</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>34.466666666666669</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>37.133333333333333</v>
       </c>
-      <c r="L8" s="2">
-        <v>23.666666666666668</v>
+      <c r="L8" s="1">
+        <v>28.2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -898,26 +894,26 @@
       <c r="E9" s="1">
         <v>46.428571428571431</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>9800</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>700</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>5600</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>400</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>37.071428571428569</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>33.642857142857146</v>
       </c>
-      <c r="L9" s="2">
-        <v>23.857142857142858</v>
+      <c r="L9" s="1">
+        <v>29.714285714285715</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -936,26 +932,26 @@
       <c r="E10" s="1">
         <v>50.357142857142854</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>9350</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>667.85714285714289</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>6100</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>435.71428571428572</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>35.5</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>36.785714285714285</v>
       </c>
-      <c r="L10" s="2">
-        <v>24.857142857142858</v>
+      <c r="L10" s="1">
+        <v>34.357142857142854</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -974,26 +970,26 @@
       <c r="E11" s="1">
         <v>41.785714285714285</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>8975</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>641.07142857142856</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>7325</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>523.21428571428567</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>34</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>22.714285714285715</v>
       </c>
-      <c r="L11" s="2">
-        <v>14.928571428571429</v>
+      <c r="L11" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1012,26 +1008,26 @@
       <c r="E12" s="1">
         <v>39.285714285714285</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>5400</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>385.71428571428572</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>4650</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>332.14285714285717</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>42.214285714285715</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>22.571428571428573</v>
       </c>
-      <c r="L12" s="2">
-        <v>19.642857142857142</v>
+      <c r="L12" s="1">
+        <v>27.714285714285715</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1050,25 +1046,25 @@
       <c r="E13" s="1">
         <v>61.071428571428569</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>11500</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>821.42857142857144</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>7450</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>532.14285714285711</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>43.714285714285715</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>31.857142857142858</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>21.785714285714285</v>
       </c>
     </row>
@@ -1088,26 +1084,26 @@
       <c r="E14" s="1">
         <v>45.769230769230766</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>7550</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>580.76923076923072</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>5200</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>400</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>37</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>46.384615384615387</v>
       </c>
-      <c r="L14" s="2">
-        <v>26.53846153846154</v>
+      <c r="L14" s="1">
+        <v>43.384615384615387</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1126,26 +1122,26 @@
       <c r="E15" s="1">
         <v>53.846153846153847</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>7950</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>611.53846153846155</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>4300</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>330.76923076923077</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>46.230769230769234</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <v>38.692307692307693</v>
       </c>
-      <c r="L15" s="2">
-        <v>28.307692307692307</v>
+      <c r="L15" s="1">
+        <v>31.846153846153847</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1164,26 +1160,26 @@
       <c r="E16" s="1">
         <v>46.53846153846154</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>5850</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>450</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>4900</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>376.92307692307691</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>44.92307692307692</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <v>54.230769230769234</v>
       </c>
-      <c r="L16" s="2">
-        <v>28.076923076923077</v>
+      <c r="L16" s="1">
+        <v>44.307692307692307</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1202,26 +1198,26 @@
       <c r="E17" s="1">
         <v>39.583333333333336</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>5100</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>425</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>4000</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>333.33333333333331</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>40.25</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <v>39.083333333333336</v>
       </c>
-      <c r="L17" s="2">
-        <v>20.583333333333332</v>
+      <c r="L17" s="1">
+        <v>29.25</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1240,26 +1236,26 @@
       <c r="E18" s="1">
         <v>55</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>6750</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>613.63636363636363</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>4400</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>400</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>54</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <v>40.272727272727273</v>
       </c>
-      <c r="L18" s="2">
-        <v>29.545454545454547</v>
+      <c r="L18" s="1">
+        <v>37.636363636363633</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1278,25 +1274,25 @@
       <c r="E19" s="1">
         <v>47.727272727272727</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>6650</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>604.5454545454545</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>4400</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>400</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>43</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>45.636363636363633</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="1">
         <v>32.090909090909093</v>
       </c>
     </row>
@@ -1316,26 +1312,26 @@
       <c r="E20" s="1">
         <v>51.5</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>8050</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>805</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>5100</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>510</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>26</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <v>35</v>
       </c>
-      <c r="L20" s="2">
-        <v>17.600000000000001</v>
+      <c r="L20" s="1">
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1354,26 +1350,26 @@
       <c r="E21" s="1">
         <v>55.555555555555557</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>6900</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>766.66666666666663</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>4400</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>488.88888888888891</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>43.333333333333336</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="1">
         <v>35.222222222222221</v>
       </c>
-      <c r="L21" s="2">
-        <v>25.111111111111111</v>
+      <c r="L21" s="1">
+        <v>32.555555555555557</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1392,26 +1388,26 @@
       <c r="E22" s="1">
         <v>31.25</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>2000</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>250</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>1500</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>187.5</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>45.25</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>60.625</v>
       </c>
-      <c r="L22" s="2">
-        <v>33.875</v>
+      <c r="L22" s="1">
+        <v>55.5</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1430,26 +1426,26 @@
       <c r="E23" s="1">
         <v>49.375</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>5350</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>668.75</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>3750</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>468.75</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>32.25</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1">
         <v>38.5</v>
       </c>
-      <c r="L23" s="2">
-        <v>21.25</v>
+      <c r="L23" s="1">
+        <v>36.625</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1468,26 +1464,26 @@
       <c r="E24" s="1">
         <v>50.714285714285715</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>4900</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>700</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>3400</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>485.71428571428572</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>52.571428571428569</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>25.857142857142858</v>
       </c>
-      <c r="L24" s="2">
-        <v>24.428571428571427</v>
+      <c r="L24" s="1">
+        <v>32.857142857142854</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1506,26 +1502,26 @@
       <c r="E25" s="1">
         <v>46.666666666666664</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>2800</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>466.66666666666669</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>2600</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>433.33333333333331</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>44.666666666666664</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <v>43.833333333333336</v>
       </c>
-      <c r="L25" s="2">
-        <v>29.333333333333332</v>
+      <c r="L25" s="1">
+        <v>39.5</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1541,28 +1537,28 @@
       <c r="D26">
         <v>40</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>40</v>
       </c>
       <c r="F26">
         <v>300</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26">
         <v>300</v>
       </c>
       <c r="H26">
         <v>400</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26">
         <v>400</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26">
         <v>41</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26">
         <v>38</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26">
         <v>38</v>
       </c>
     </row>

--- a/BUNDES_refereestats.xlsx
+++ b/BUNDES_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Referee</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t/>
@@ -267,41 +270,41 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
+      <c r="B2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C2" t="n">
         <v>9.0</v>
       </c>
       <c r="D2" t="n">
-        <v>370.0</v>
+        <v>540.0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.111111111111114</v>
+        <v>60.0</v>
       </c>
       <c r="F2" t="n">
-        <v>4150.0</v>
+        <v>10125.0</v>
       </c>
       <c r="G2" t="n">
-        <v>461.1111111111111</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3050.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>338.8888888888889</v>
-      </c>
-      <c r="J2" t="n">
-        <v>38.22222222222222</v>
-      </c>
-      <c r="K2" t="n">
-        <v>40.666666666666664</v>
-      </c>
-      <c r="L2" t="n">
-        <v>40.111111111111114</v>
+        <v>1125.0</v>
+      </c>
+      <c r="H2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M2" t="n">
-        <v>1.989247311827957</v>
+        <v>2.4324324324324325</v>
       </c>
     </row>
     <row r="3">
@@ -312,37 +315,37 @@
         <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="D3" t="n">
-        <v>70.0</v>
+        <v>370.0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.0</v>
+        <v>41.111111111111114</v>
       </c>
       <c r="F3" t="n">
-        <v>300.0</v>
+        <v>4150.0</v>
       </c>
       <c r="G3" t="n">
-        <v>150.0</v>
+        <v>461.1111111111111</v>
       </c>
       <c r="H3" t="n">
-        <v>500.0</v>
+        <v>3050.0</v>
       </c>
       <c r="I3" t="n">
-        <v>250.0</v>
+        <v>338.8888888888889</v>
       </c>
       <c r="J3" t="n">
-        <v>8.5</v>
+        <v>38.22222222222222</v>
       </c>
       <c r="K3" t="n">
-        <v>42.0</v>
+        <v>40.666666666666664</v>
       </c>
       <c r="L3" t="n">
-        <v>14.0</v>
+        <v>40.111111111111114</v>
       </c>
       <c r="M3" t="n">
-        <v>1.9444444444444444</v>
+        <v>1.989247311827957</v>
       </c>
     </row>
     <row r="4">
@@ -374,16 +377,16 @@
         <v>250.0</v>
       </c>
       <c r="J4" t="n">
-        <v>38.0</v>
+        <v>8.5</v>
       </c>
       <c r="K4" t="n">
         <v>42.0</v>
       </c>
       <c r="L4" t="n">
-        <v>42.0</v>
+        <v>14.0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.8421052631578947</v>
+        <v>1.9444444444444444</v>
       </c>
     </row>
     <row r="5">
@@ -397,34 +400,34 @@
         <v>2.0</v>
       </c>
       <c r="D5" t="n">
-        <v>145.0</v>
+        <v>70.0</v>
       </c>
       <c r="E5" t="n">
-        <v>72.5</v>
+        <v>35.0</v>
       </c>
       <c r="F5" t="n">
-        <v>2100.0</v>
+        <v>300.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1050.0</v>
+        <v>150.0</v>
       </c>
       <c r="H5" t="n">
-        <v>1700.0</v>
+        <v>500.0</v>
       </c>
       <c r="I5" t="n">
-        <v>850.0</v>
+        <v>250.0</v>
       </c>
       <c r="J5" t="n">
-        <v>35.5</v>
+        <v>38.0</v>
       </c>
       <c r="K5" t="n">
-        <v>26.0</v>
+        <v>42.0</v>
       </c>
       <c r="L5" t="n">
-        <v>26.0</v>
+        <v>42.0</v>
       </c>
       <c r="M5" t="n">
-        <v>3.4523809523809526</v>
+        <v>1.8421052631578947</v>
       </c>
     </row>
     <row r="6">
@@ -438,34 +441,34 @@
         <v>2.0</v>
       </c>
       <c r="D6" t="n">
-        <v>140.0</v>
+        <v>145.0</v>
       </c>
       <c r="E6" t="n">
-        <v>70.0</v>
+        <v>72.5</v>
       </c>
       <c r="F6" t="n">
-        <v>4125.0</v>
+        <v>2100.0</v>
       </c>
       <c r="G6" t="n">
-        <v>2062.5</v>
+        <v>1050.0</v>
       </c>
       <c r="H6" t="n">
-        <v>1500.0</v>
+        <v>1700.0</v>
       </c>
       <c r="I6" t="n">
-        <v>750.0</v>
+        <v>850.0</v>
       </c>
       <c r="J6" t="n">
-        <v>86.5</v>
+        <v>35.5</v>
       </c>
       <c r="K6" t="n">
-        <v>14.0</v>
+        <v>26.0</v>
       </c>
       <c r="L6" t="n">
-        <v>58.5</v>
+        <v>26.0</v>
       </c>
       <c r="M6" t="n">
-        <v>3.6842105263157894</v>
+        <v>3.4523809523809526</v>
       </c>
     </row>
     <row r="7">
@@ -479,34 +482,34 @@
         <v>2.0</v>
       </c>
       <c r="D7" t="n">
-        <v>80.0</v>
+        <v>140.0</v>
       </c>
       <c r="E7" t="n">
-        <v>40.0</v>
+        <v>70.0</v>
       </c>
       <c r="F7" t="n">
-        <v>400.0</v>
+        <v>4125.0</v>
       </c>
       <c r="G7" t="n">
-        <v>200.0</v>
+        <v>2062.5</v>
       </c>
       <c r="H7" t="n">
-        <v>800.0</v>
+        <v>1500.0</v>
       </c>
       <c r="I7" t="n">
-        <v>400.0</v>
+        <v>750.0</v>
       </c>
       <c r="J7" t="n">
-        <v>66.5</v>
+        <v>86.5</v>
       </c>
       <c r="K7" t="n">
-        <v>73.0</v>
+        <v>14.0</v>
       </c>
       <c r="L7" t="n">
-        <v>45.5</v>
+        <v>58.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.4545454545454546</v>
+        <v>3.6842105263157894</v>
       </c>
     </row>
     <row r="8">
@@ -520,34 +523,34 @@
         <v>2.0</v>
       </c>
       <c r="D8" t="n">
-        <v>85.0</v>
+        <v>80.0</v>
       </c>
       <c r="E8" t="n">
-        <v>42.5</v>
+        <v>40.0</v>
       </c>
       <c r="F8" t="n">
-        <v>1150.0</v>
+        <v>400.0</v>
       </c>
       <c r="G8" t="n">
-        <v>575.0</v>
+        <v>200.0</v>
       </c>
       <c r="H8" t="n">
-        <v>900.0</v>
+        <v>800.0</v>
       </c>
       <c r="I8" t="n">
-        <v>450.0</v>
+        <v>400.0</v>
       </c>
       <c r="J8" t="n">
-        <v>59.5</v>
+        <v>66.5</v>
       </c>
       <c r="K8" t="n">
-        <v>58.5</v>
+        <v>73.0</v>
       </c>
       <c r="L8" t="n">
-        <v>51.0</v>
+        <v>45.5</v>
       </c>
       <c r="M8" t="n">
-        <v>2.65625</v>
+        <v>1.4545454545454546</v>
       </c>
     </row>
     <row r="9">
@@ -561,16 +564,16 @@
         <v>2.0</v>
       </c>
       <c r="D9" t="n">
-        <v>100.0</v>
+        <v>85.0</v>
       </c>
       <c r="E9" t="n">
-        <v>50.0</v>
+        <v>42.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1200.0</v>
+        <v>1150.0</v>
       </c>
       <c r="G9" t="n">
-        <v>600.0</v>
+        <v>575.0</v>
       </c>
       <c r="H9" t="n">
         <v>900.0</v>
@@ -579,16 +582,16 @@
         <v>450.0</v>
       </c>
       <c r="J9" t="n">
-        <v>17.5</v>
+        <v>59.5</v>
       </c>
       <c r="K9" t="n">
-        <v>55.5</v>
+        <v>58.5</v>
       </c>
       <c r="L9" t="n">
-        <v>17.5</v>
+        <v>51.0</v>
       </c>
       <c r="M9" t="n">
-        <v>2.0</v>
+        <v>2.65625</v>
       </c>
     </row>
     <row r="10">
@@ -599,37 +602,37 @@
         <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D10" t="n">
-        <v>10.0</v>
+        <v>100.0</v>
       </c>
       <c r="E10" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>1200.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>900.0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0</v>
+        <v>450.0</v>
       </c>
       <c r="J10" t="n">
-        <v>31.0</v>
+        <v>17.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0</v>
+        <v>55.5</v>
       </c>
       <c r="L10" t="n">
-        <v>31.0</v>
+        <v>17.5</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -643,34 +646,34 @@
         <v>1.0</v>
       </c>
       <c r="D11" t="n">
-        <v>70.0</v>
+        <v>10.0</v>
       </c>
       <c r="E11" t="n">
-        <v>70.0</v>
+        <v>10.0</v>
       </c>
       <c r="F11" t="n">
-        <v>1200.0</v>
+        <v>0.0</v>
       </c>
       <c r="G11" t="n">
-        <v>1200.0</v>
+        <v>0.0</v>
       </c>
       <c r="H11" t="n">
-        <v>1200.0</v>
+        <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>1200.0</v>
+        <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>39.0</v>
+        <v>31.0</v>
       </c>
       <c r="K11" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="L11" t="n">
-        <v>5.0</v>
+        <v>31.0</v>
       </c>
       <c r="M11" t="n">
-        <v>3.1818181818181817</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
@@ -684,34 +687,34 @@
         <v>1.0</v>
       </c>
       <c r="D12" t="n">
-        <v>40.0</v>
+        <v>70.0</v>
       </c>
       <c r="E12" t="n">
-        <v>40.0</v>
+        <v>70.0</v>
       </c>
       <c r="F12" t="n">
-        <v>400.0</v>
+        <v>1200.0</v>
       </c>
       <c r="G12" t="n">
-        <v>400.0</v>
+        <v>1200.0</v>
       </c>
       <c r="H12" t="n">
-        <v>400.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I12" t="n">
-        <v>400.0</v>
+        <v>1200.0</v>
       </c>
       <c r="J12" t="n">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.0</v>
+        <v>5.0</v>
       </c>
       <c r="L12" t="n">
-        <v>35.0</v>
+        <v>5.0</v>
       </c>
       <c r="M12" t="n">
-        <v>2.1052631578947367</v>
+        <v>3.1818181818181817</v>
       </c>
     </row>
     <row r="13">
@@ -725,34 +728,34 @@
         <v>1.0</v>
       </c>
       <c r="D13" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="E13" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="F13" t="n">
-        <v>200.0</v>
+        <v>400.0</v>
       </c>
       <c r="G13" t="n">
-        <v>200.0</v>
+        <v>400.0</v>
       </c>
       <c r="H13" t="n">
-        <v>200.0</v>
+        <v>400.0</v>
       </c>
       <c r="I13" t="n">
-        <v>200.0</v>
+        <v>400.0</v>
       </c>
       <c r="J13" t="n">
-        <v>80.0</v>
+        <v>35.0</v>
       </c>
       <c r="K13" t="n">
-        <v>25.0</v>
+        <v>39.0</v>
       </c>
       <c r="L13" t="n">
-        <v>25.0</v>
+        <v>35.0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.2</v>
+        <v>2.1052631578947367</v>
       </c>
     </row>
     <row r="14">
@@ -766,34 +769,34 @@
         <v>1.0</v>
       </c>
       <c r="D14" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="E14" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="F14" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="H14" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="I14" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="J14" t="n">
-        <v>37.0</v>
+        <v>80.0</v>
       </c>
       <c r="K14" t="n">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
       <c r="L14" t="n">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.5384615384615385</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15">
@@ -807,34 +810,34 @@
         <v>1.0</v>
       </c>
       <c r="D15" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="E15" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="F15" t="n">
-        <v>100.0</v>
+        <v>400.0</v>
       </c>
       <c r="G15" t="n">
-        <v>100.0</v>
+        <v>400.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J15" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="K15" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="L15" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9090909090909091</v>
+        <v>1.5384615384615385</v>
       </c>
     </row>
     <row r="16">
@@ -848,34 +851,34 @@
         <v>1.0</v>
       </c>
       <c r="D16" t="n">
-        <v>115.0</v>
+        <v>20.0</v>
       </c>
       <c r="E16" t="n">
-        <v>115.0</v>
+        <v>20.0</v>
       </c>
       <c r="F16" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="G16" t="n">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="H16" t="n">
-        <v>1900.0</v>
+        <v>0.0</v>
       </c>
       <c r="I16" t="n">
-        <v>1900.0</v>
+        <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="K16" t="n">
-        <v>50.0</v>
+        <v>13.0</v>
       </c>
       <c r="L16" t="n">
-        <v>36.0</v>
+        <v>13.0</v>
       </c>
       <c r="M16" t="n">
-        <v>5.75</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="17">
@@ -889,34 +892,34 @@
         <v>1.0</v>
       </c>
       <c r="D17" t="n">
-        <v>30.0</v>
+        <v>115.0</v>
       </c>
       <c r="E17" t="n">
-        <v>30.0</v>
+        <v>115.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
+        <v>3000.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>1900.0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0</v>
+        <v>1900.0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="K17" t="n">
-        <v>81.0</v>
+        <v>50.0</v>
       </c>
       <c r="L17" t="n">
-        <v>81.0</v>
+        <v>36.0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.4285714285714286</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="18">
@@ -930,34 +933,34 @@
         <v>1.0</v>
       </c>
       <c r="D18" t="n">
-        <v>110.0</v>
+        <v>30.0</v>
       </c>
       <c r="E18" t="n">
-        <v>110.0</v>
+        <v>30.0</v>
       </c>
       <c r="F18" t="n">
-        <v>2800.0</v>
+        <v>0.0</v>
       </c>
       <c r="G18" t="n">
-        <v>2800.0</v>
+        <v>0.0</v>
       </c>
       <c r="H18" t="n">
-        <v>2800.0</v>
+        <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>2800.0</v>
+        <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>48.0</v>
+        <v>0.0</v>
       </c>
       <c r="K18" t="n">
-        <v>19.0</v>
+        <v>81.0</v>
       </c>
       <c r="L18" t="n">
-        <v>19.0</v>
+        <v>81.0</v>
       </c>
       <c r="M18" t="n">
-        <v>3.5483870967741935</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="19">
@@ -971,34 +974,34 @@
         <v>1.0</v>
       </c>
       <c r="D19" t="n">
-        <v>10.0</v>
+        <v>110.0</v>
       </c>
       <c r="E19" t="n">
-        <v>10.0</v>
+        <v>110.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0</v>
+        <v>2800.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
+        <v>2800.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0</v>
+        <v>2800.0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0</v>
+        <v>2800.0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0</v>
+        <v>48.0</v>
       </c>
       <c r="K19" t="n">
-        <v>81.0</v>
+        <v>19.0</v>
       </c>
       <c r="L19" t="n">
-        <v>81.0</v>
+        <v>19.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.43478260869565216</v>
+        <v>3.5483870967741935</v>
       </c>
     </row>
     <row r="20">
@@ -1012,34 +1015,34 @@
         <v>1.0</v>
       </c>
       <c r="D20" t="n">
-        <v>60.0</v>
+        <v>10.0</v>
       </c>
       <c r="E20" t="n">
-        <v>60.0</v>
+        <v>10.0</v>
       </c>
       <c r="F20" t="n">
-        <v>800.0</v>
+        <v>0.0</v>
       </c>
       <c r="G20" t="n">
-        <v>800.0</v>
+        <v>0.0</v>
       </c>
       <c r="H20" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="I20" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="J20" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="K20" t="n">
-        <v>79.0</v>
+        <v>81.0</v>
       </c>
       <c r="L20" t="n">
-        <v>36.0</v>
+        <v>81.0</v>
       </c>
       <c r="M20" t="n">
-        <v>3.3333333333333335</v>
+        <v>0.43478260869565216</v>
       </c>
     </row>
     <row r="21">
@@ -1053,34 +1056,34 @@
         <v>1.0</v>
       </c>
       <c r="D21" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="E21" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="F21" t="n">
-        <v>400.0</v>
+        <v>800.0</v>
       </c>
       <c r="G21" t="n">
-        <v>400.0</v>
+        <v>800.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J21" t="n">
-        <v>82.0</v>
+        <v>36.0</v>
       </c>
       <c r="K21" t="n">
-        <v>63.0</v>
+        <v>79.0</v>
       </c>
       <c r="L21" t="n">
-        <v>63.0</v>
+        <v>36.0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.2903225806451613</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="22">
@@ -1094,33 +1097,74 @@
         <v>1.0</v>
       </c>
       <c r="D22" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.2903225806451613</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D23" t="n">
         <v>50.0</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E23" t="n">
         <v>50.0</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F23" t="n">
         <v>600.0</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G23" t="n">
         <v>600.0</v>
       </c>
-      <c r="H22" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="H23" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="J23" t="n">
         <v>53.0</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K23" t="n">
         <v>26.0</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L23" t="n">
         <v>26.0</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M23" t="n">
         <v>1.7857142857142858</v>
       </c>
     </row>

--- a/BUNDES_refereestats.xlsx
+++ b/BUNDES_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Referee</t>
   </si>
@@ -116,7 +116,7 @@
     <t>22</t>
   </si>
   <si>
-    <t/>
+    <t>23</t>
   </si>
   <si>
     <t>Florian Badstübner</t>
@@ -125,58 +125,64 @@
     <t>Bastian Dankert</t>
   </si>
   <si>
+    <t>Felix Zwayer</t>
+  </si>
+  <si>
+    <t>Daniel Schlager</t>
+  </si>
+  <si>
+    <t>Felix Brych</t>
+  </si>
+  <si>
     <t>Robert Hartmann</t>
   </si>
   <si>
+    <t>Daniel Siebert</t>
+  </si>
+  <si>
     <t>Sören Storks</t>
   </si>
   <si>
+    <t>Tobias Reichel</t>
+  </si>
+  <si>
+    <t>Benjamin Brand</t>
+  </si>
+  <si>
+    <t>Matthias Jöllenbeck</t>
+  </si>
+  <si>
+    <t>Timo Gerach</t>
+  </si>
+  <si>
+    <t>Christian Dingert</t>
+  </si>
+  <si>
+    <t>Harm Osmers</t>
+  </si>
+  <si>
+    <t>Tobias Welz</t>
+  </si>
+  <si>
+    <t>Sascha Stegemann</t>
+  </si>
+  <si>
+    <t>Tobias Stieler</t>
+  </si>
+  <si>
+    <t>Florian Exner</t>
+  </si>
+  <si>
     <t>Martin Petersen</t>
   </si>
   <si>
-    <t>Benjamin Brand</t>
-  </si>
-  <si>
-    <t>Matthias Jöllenbeck</t>
-  </si>
-  <si>
-    <t>Christian Dingert</t>
-  </si>
-  <si>
-    <t>Felix Zwayer</t>
-  </si>
-  <si>
-    <t>Daniel Schlager</t>
-  </si>
-  <si>
-    <t>Harm Osmers</t>
-  </si>
-  <si>
-    <t>Felix Brych</t>
-  </si>
-  <si>
-    <t>Tobias Welz</t>
-  </si>
-  <si>
-    <t>Sascha Stegemann</t>
-  </si>
-  <si>
-    <t>Daniel Siebert</t>
-  </si>
-  <si>
-    <t>Florian Exner</t>
-  </si>
-  <si>
-    <t>Tobias Reichel</t>
-  </si>
-  <si>
-    <t>Timo Gerach</t>
+    <t>Sven Jablonski</t>
+  </si>
+  <si>
+    <t>Max Burda</t>
   </si>
   <si>
     <t>Robert Schröder</t>
-  </si>
-  <si>
-    <t>Sven Jablonski</t>
   </si>
 </sst>
 </file>
@@ -277,34 +283,34 @@
         <v>9.0</v>
       </c>
       <c r="D2" t="n">
-        <v>540.0</v>
+        <v>370.0</v>
       </c>
       <c r="E2" t="n">
-        <v>60.0</v>
+        <v>41.111111111111114</v>
       </c>
       <c r="F2" t="n">
-        <v>10125.0</v>
+        <v>4150.0</v>
       </c>
       <c r="G2" t="n">
-        <v>1125.0</v>
-      </c>
-      <c r="H2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L2" t="e">
-        <v>#N/A</v>
+        <v>461.1111111111111</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3050.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>338.8888888888889</v>
+      </c>
+      <c r="J2" t="n">
+        <v>38.22222222222222</v>
+      </c>
+      <c r="K2" t="n">
+        <v>40.666666666666664</v>
+      </c>
+      <c r="L2" t="n">
+        <v>40.111111111111114</v>
       </c>
       <c r="M2" t="n">
-        <v>2.4324324324324325</v>
+        <v>1.989247311827957</v>
       </c>
     </row>
     <row r="3">
@@ -312,40 +318,40 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3" t="n">
-        <v>370.0</v>
+        <v>130.0</v>
       </c>
       <c r="E3" t="n">
-        <v>41.111111111111114</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="F3" t="n">
-        <v>4150.0</v>
+        <v>1100.0</v>
       </c>
       <c r="G3" t="n">
-        <v>461.1111111111111</v>
+        <v>366.6666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>3050.0</v>
+        <v>500.0</v>
       </c>
       <c r="I3" t="n">
-        <v>338.8888888888889</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="J3" t="n">
-        <v>38.22222222222222</v>
+        <v>29.666666666666668</v>
       </c>
       <c r="K3" t="n">
-        <v>40.666666666666664</v>
+        <v>47.666666666666664</v>
       </c>
       <c r="L3" t="n">
-        <v>40.111111111111114</v>
+        <v>29.0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.989247311827957</v>
+        <v>2.03125</v>
       </c>
     </row>
     <row r="4">
@@ -353,40 +359,40 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n">
-        <v>70.0</v>
+        <v>90.0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
       <c r="F4" t="n">
-        <v>300.0</v>
+        <v>400.0</v>
       </c>
       <c r="G4" t="n">
-        <v>150.0</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>500.0</v>
+        <v>600.0</v>
       </c>
       <c r="I4" t="n">
-        <v>250.0</v>
+        <v>200.0</v>
       </c>
       <c r="J4" t="n">
-        <v>8.5</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K4" t="n">
-        <v>42.0</v>
+        <v>57.666666666666664</v>
       </c>
       <c r="L4" t="n">
-        <v>14.0</v>
+        <v>36.0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.9444444444444444</v>
+        <v>1.6071428571428572</v>
       </c>
     </row>
     <row r="5">
@@ -394,40 +400,40 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1600.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>533.3333333333334</v>
+      </c>
+      <c r="J5" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="M5" t="n">
         <v>2.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>250.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.8421052631578947</v>
       </c>
     </row>
     <row r="6">
@@ -435,40 +441,40 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D6" t="n">
-        <v>145.0</v>
+        <v>125.0</v>
       </c>
       <c r="E6" t="n">
-        <v>72.5</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="F6" t="n">
-        <v>2100.0</v>
+        <v>1050.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1050.0</v>
+        <v>350.0</v>
       </c>
       <c r="H6" t="n">
-        <v>1700.0</v>
+        <v>750.0</v>
       </c>
       <c r="I6" t="n">
-        <v>850.0</v>
+        <v>250.0</v>
       </c>
       <c r="J6" t="n">
-        <v>35.5</v>
+        <v>48.0</v>
       </c>
       <c r="K6" t="n">
-        <v>26.0</v>
+        <v>60.333333333333336</v>
       </c>
       <c r="L6" t="n">
-        <v>26.0</v>
+        <v>44.0</v>
       </c>
       <c r="M6" t="n">
-        <v>3.4523809523809526</v>
+        <v>1.9230769230769231</v>
       </c>
     </row>
     <row r="7">
@@ -476,40 +482,40 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D7" t="n">
-        <v>140.0</v>
+        <v>90.0</v>
       </c>
       <c r="E7" t="n">
-        <v>70.0</v>
+        <v>30.0</v>
       </c>
       <c r="F7" t="n">
-        <v>4125.0</v>
+        <v>600.0</v>
       </c>
       <c r="G7" t="n">
-        <v>2062.5</v>
+        <v>200.0</v>
       </c>
       <c r="H7" t="n">
-        <v>1500.0</v>
+        <v>600.0</v>
       </c>
       <c r="I7" t="n">
-        <v>750.0</v>
+        <v>200.0</v>
       </c>
       <c r="J7" t="n">
-        <v>86.5</v>
+        <v>54.0</v>
       </c>
       <c r="K7" t="n">
         <v>14.0</v>
       </c>
       <c r="L7" t="n">
-        <v>58.5</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M7" t="n">
-        <v>3.6842105263157894</v>
+        <v>1.4754098360655739</v>
       </c>
     </row>
     <row r="8">
@@ -517,40 +523,40 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D8" t="n">
-        <v>80.0</v>
+        <v>185.0</v>
       </c>
       <c r="E8" t="n">
-        <v>40.0</v>
+        <v>61.666666666666664</v>
       </c>
       <c r="F8" t="n">
-        <v>400.0</v>
+        <v>2500.0</v>
       </c>
       <c r="G8" t="n">
-        <v>200.0</v>
+        <v>833.3333333333334</v>
       </c>
       <c r="H8" t="n">
-        <v>800.0</v>
+        <v>1700.0</v>
       </c>
       <c r="I8" t="n">
-        <v>400.0</v>
+        <v>566.6666666666666</v>
       </c>
       <c r="J8" t="n">
-        <v>66.5</v>
+        <v>46.333333333333336</v>
       </c>
       <c r="K8" t="n">
-        <v>73.0</v>
+        <v>37.333333333333336</v>
       </c>
       <c r="L8" t="n">
-        <v>45.5</v>
+        <v>37.333333333333336</v>
       </c>
       <c r="M8" t="n">
-        <v>1.4545454545454546</v>
+        <v>3.3035714285714284</v>
       </c>
     </row>
     <row r="9">
@@ -558,40 +564,40 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D9" t="n">
-        <v>85.0</v>
+        <v>120.0</v>
       </c>
       <c r="E9" t="n">
-        <v>42.5</v>
+        <v>40.0</v>
       </c>
       <c r="F9" t="n">
-        <v>1150.0</v>
+        <v>1100.0</v>
       </c>
       <c r="G9" t="n">
-        <v>575.0</v>
+        <v>366.6666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>900.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I9" t="n">
-        <v>450.0</v>
+        <v>333.3333333333333</v>
       </c>
       <c r="J9" t="n">
-        <v>59.5</v>
+        <v>24.333333333333332</v>
       </c>
       <c r="K9" t="n">
-        <v>58.5</v>
+        <v>65.66666666666667</v>
       </c>
       <c r="L9" t="n">
-        <v>51.0</v>
+        <v>51.333333333333336</v>
       </c>
       <c r="M9" t="n">
-        <v>2.65625</v>
+        <v>1.791044776119403</v>
       </c>
     </row>
     <row r="10">
@@ -599,40 +605,40 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.0</v>
+        <v>160.0</v>
       </c>
       <c r="E10" t="n">
-        <v>50.0</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="F10" t="n">
-        <v>1200.0</v>
+        <v>4225.0</v>
       </c>
       <c r="G10" t="n">
-        <v>600.0</v>
+        <v>1408.3333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>900.0</v>
+        <v>1500.0</v>
       </c>
       <c r="I10" t="n">
-        <v>450.0</v>
+        <v>500.0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.5</v>
+        <v>85.0</v>
       </c>
       <c r="K10" t="n">
-        <v>55.5</v>
+        <v>27.666666666666668</v>
       </c>
       <c r="L10" t="n">
-        <v>17.5</v>
+        <v>57.333333333333336</v>
       </c>
       <c r="M10" t="n">
-        <v>2.0</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="11">
@@ -640,40 +646,40 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D11" t="n">
-        <v>10.0</v>
+        <v>175.0</v>
       </c>
       <c r="E11" t="n">
-        <v>10.0</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>3250.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0</v>
+        <v>1083.3333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0</v>
+        <v>3300.0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="J11" t="n">
-        <v>31.0</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="L11" t="n">
-        <v>31.0</v>
+        <v>35.333333333333336</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4</v>
+        <v>2.0348837209302326</v>
       </c>
     </row>
     <row r="12">
@@ -681,40 +687,40 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D12" t="n">
-        <v>70.0</v>
+        <v>105.0</v>
       </c>
       <c r="E12" t="n">
-        <v>70.0</v>
+        <v>35.0</v>
       </c>
       <c r="F12" t="n">
-        <v>1200.0</v>
+        <v>1250.0</v>
       </c>
       <c r="G12" t="n">
-        <v>1200.0</v>
+        <v>416.6666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>1200.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I12" t="n">
-        <v>1200.0</v>
+        <v>333.3333333333333</v>
       </c>
       <c r="J12" t="n">
-        <v>39.0</v>
+        <v>71.66666666666667</v>
       </c>
       <c r="K12" t="n">
-        <v>5.0</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="L12" t="n">
-        <v>5.0</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="M12" t="n">
-        <v>3.1818181818181817</v>
+        <v>2.1875</v>
       </c>
     </row>
     <row r="13">
@@ -722,40 +728,40 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D13" t="n">
-        <v>40.0</v>
+        <v>130.0</v>
       </c>
       <c r="E13" t="n">
-        <v>40.0</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="F13" t="n">
-        <v>400.0</v>
+        <v>1400.0</v>
       </c>
       <c r="G13" t="n">
-        <v>400.0</v>
+        <v>466.6666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>400.0</v>
+        <v>1100.0</v>
       </c>
       <c r="I13" t="n">
-        <v>400.0</v>
+        <v>366.6666666666667</v>
       </c>
       <c r="J13" t="n">
-        <v>35.0</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="K13" t="n">
-        <v>39.0</v>
+        <v>50.333333333333336</v>
       </c>
       <c r="L13" t="n">
-        <v>35.0</v>
+        <v>25.0</v>
       </c>
       <c r="M13" t="n">
-        <v>2.1052631578947367</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -763,40 +769,40 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D14" t="n">
-        <v>30.0</v>
+        <v>150.0</v>
       </c>
       <c r="E14" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="F14" t="n">
-        <v>200.0</v>
+        <v>1900.0</v>
       </c>
       <c r="G14" t="n">
-        <v>200.0</v>
+        <v>633.3333333333334</v>
       </c>
       <c r="H14" t="n">
-        <v>200.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I14" t="n">
-        <v>200.0</v>
+        <v>400.0</v>
       </c>
       <c r="J14" t="n">
-        <v>80.0</v>
+        <v>45.333333333333336</v>
       </c>
       <c r="K14" t="n">
-        <v>25.0</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="L14" t="n">
-        <v>25.0</v>
+        <v>45.333333333333336</v>
       </c>
       <c r="M14" t="n">
-        <v>1.2</v>
+        <v>2.4193548387096775</v>
       </c>
     </row>
     <row r="15">
@@ -804,40 +810,40 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D15" t="n">
         <v>40.0</v>
       </c>
       <c r="E15" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="F15" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="I15" t="n">
-        <v>400.0</v>
+        <v>100.0</v>
       </c>
       <c r="J15" t="n">
-        <v>37.0</v>
+        <v>15.5</v>
       </c>
       <c r="K15" t="n">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="L15" t="n">
-        <v>14.0</v>
+        <v>25.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.5384615384615385</v>
+        <v>0.7547169811320755</v>
       </c>
     </row>
     <row r="16">
@@ -845,40 +851,40 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D16" t="n">
-        <v>20.0</v>
+        <v>80.0</v>
       </c>
       <c r="E16" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="F16" t="n">
-        <v>100.0</v>
+        <v>600.0</v>
       </c>
       <c r="G16" t="n">
-        <v>100.0</v>
+        <v>300.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.0</v>
+        <v>53.0</v>
       </c>
       <c r="K16" t="n">
-        <v>13.0</v>
+        <v>36.5</v>
       </c>
       <c r="L16" t="n">
-        <v>13.0</v>
+        <v>25.5</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9090909090909091</v>
+        <v>1.9047619047619047</v>
       </c>
     </row>
     <row r="17">
@@ -886,40 +892,40 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D17" t="n">
-        <v>115.0</v>
+        <v>50.0</v>
       </c>
       <c r="E17" t="n">
-        <v>115.0</v>
+        <v>25.0</v>
       </c>
       <c r="F17" t="n">
-        <v>3000.0</v>
+        <v>300.0</v>
       </c>
       <c r="G17" t="n">
-        <v>3000.0</v>
+        <v>150.0</v>
       </c>
       <c r="H17" t="n">
-        <v>1900.0</v>
+        <v>100.0</v>
       </c>
       <c r="I17" t="n">
-        <v>1900.0</v>
+        <v>50.0</v>
       </c>
       <c r="J17" t="n">
-        <v>36.0</v>
+        <v>66.5</v>
       </c>
       <c r="K17" t="n">
-        <v>50.0</v>
+        <v>24.5</v>
       </c>
       <c r="L17" t="n">
-        <v>36.0</v>
+        <v>24.5</v>
       </c>
       <c r="M17" t="n">
-        <v>5.75</v>
+        <v>1.3157894736842106</v>
       </c>
     </row>
     <row r="18">
@@ -927,40 +933,40 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D18" t="n">
-        <v>30.0</v>
+        <v>155.0</v>
       </c>
       <c r="E18" t="n">
-        <v>30.0</v>
+        <v>77.5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>3400.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
+        <v>1700.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>2200.0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="K18" t="n">
-        <v>81.0</v>
+        <v>61.0</v>
       </c>
       <c r="L18" t="n">
-        <v>81.0</v>
+        <v>27.0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.4285714285714286</v>
+        <v>3.4444444444444446</v>
       </c>
     </row>
     <row r="19">
@@ -968,40 +974,40 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D19" t="n">
-        <v>110.0</v>
+        <v>60.0</v>
       </c>
       <c r="E19" t="n">
-        <v>110.0</v>
+        <v>30.0</v>
       </c>
       <c r="F19" t="n">
-        <v>2800.0</v>
+        <v>300.0</v>
       </c>
       <c r="G19" t="n">
-        <v>2800.0</v>
+        <v>150.0</v>
       </c>
       <c r="H19" t="n">
-        <v>2800.0</v>
+        <v>300.0</v>
       </c>
       <c r="I19" t="n">
-        <v>2800.0</v>
+        <v>150.0</v>
       </c>
       <c r="J19" t="n">
-        <v>48.0</v>
+        <v>25.5</v>
       </c>
       <c r="K19" t="n">
-        <v>19.0</v>
+        <v>44.0</v>
       </c>
       <c r="L19" t="n">
-        <v>19.0</v>
+        <v>44.0</v>
       </c>
       <c r="M19" t="n">
-        <v>3.5483870967741935</v>
+        <v>1.4634146341463414</v>
       </c>
     </row>
     <row r="20">
@@ -1009,40 +1015,40 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D20" t="n">
-        <v>10.0</v>
+        <v>240.0</v>
       </c>
       <c r="E20" t="n">
-        <v>10.0</v>
+        <v>120.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0</v>
+        <v>7025.0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0</v>
+        <v>3512.5</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>3650.0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0</v>
+        <v>1825.0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="K20" t="n">
-        <v>81.0</v>
+        <v>33.5</v>
       </c>
       <c r="L20" t="n">
-        <v>81.0</v>
+        <v>12.5</v>
       </c>
       <c r="M20" t="n">
-        <v>0.43478260869565216</v>
+        <v>4.705882352941177</v>
       </c>
     </row>
     <row r="21">
@@ -1050,40 +1056,40 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D21" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="E21" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="F21" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="H21" t="n">
         <v>800.0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>400.0</v>
       </c>
       <c r="I21" t="n">
         <v>400.0</v>
       </c>
       <c r="J21" t="n">
-        <v>36.0</v>
+        <v>66.5</v>
       </c>
       <c r="K21" t="n">
-        <v>79.0</v>
+        <v>73.0</v>
       </c>
       <c r="L21" t="n">
-        <v>36.0</v>
+        <v>45.5</v>
       </c>
       <c r="M21" t="n">
-        <v>3.3333333333333335</v>
+        <v>1.4545454545454546</v>
       </c>
     </row>
     <row r="22">
@@ -1091,40 +1097,40 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D22" t="n">
-        <v>40.0</v>
+        <v>145.0</v>
       </c>
       <c r="E22" t="n">
-        <v>40.0</v>
+        <v>72.5</v>
       </c>
       <c r="F22" t="n">
-        <v>400.0</v>
+        <v>2850.0</v>
       </c>
       <c r="G22" t="n">
-        <v>400.0</v>
+        <v>1425.0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="J22" t="n">
-        <v>82.0</v>
+        <v>49.5</v>
       </c>
       <c r="K22" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="L22" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.2903225806451613</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="23">
@@ -1132,40 +1138,81 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="n">
         <v>1.0</v>
       </c>
       <c r="D23" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="E23" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="F23" t="n">
-        <v>600.0</v>
+        <v>200.0</v>
       </c>
       <c r="G23" t="n">
-        <v>600.0</v>
+        <v>200.0</v>
       </c>
       <c r="H23" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.3043478260869565</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F24" t="n">
         <v>400.0</v>
       </c>
-      <c r="I23" t="n">
+      <c r="G24" t="n">
         <v>400.0</v>
       </c>
-      <c r="J23" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.7857142857142858</v>
+      <c r="H24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.2903225806451613</v>
       </c>
     </row>
   </sheetData>

--- a/BUNDES_refereestats.xlsx
+++ b/BUNDES_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Referee</t>
   </si>
@@ -119,67 +119,73 @@
     <t>23</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>Florian Badstübner</t>
   </si>
   <si>
     <t>Bastian Dankert</t>
   </si>
   <si>
+    <t>Daniel Schlager</t>
+  </si>
+  <si>
+    <t>Felix Brych</t>
+  </si>
+  <si>
+    <t>Robert Hartmann</t>
+  </si>
+  <si>
+    <t>Daniel Siebert</t>
+  </si>
+  <si>
+    <t>Tobias Reichel</t>
+  </si>
+  <si>
+    <t>Benjamin Brand</t>
+  </si>
+  <si>
+    <t>Matthias Jöllenbeck</t>
+  </si>
+  <si>
+    <t>Christian Dingert</t>
+  </si>
+  <si>
     <t>Felix Zwayer</t>
   </si>
   <si>
-    <t>Daniel Schlager</t>
-  </si>
-  <si>
-    <t>Felix Brych</t>
-  </si>
-  <si>
-    <t>Robert Hartmann</t>
-  </si>
-  <si>
-    <t>Daniel Siebert</t>
+    <t>Harm Osmers</t>
+  </si>
+  <si>
+    <t>Tobias Welz</t>
+  </si>
+  <si>
+    <t>Sascha Stegemann</t>
+  </si>
+  <si>
+    <t>Tobias Stieler</t>
   </si>
   <si>
     <t>Sören Storks</t>
   </si>
   <si>
-    <t>Tobias Reichel</t>
-  </si>
-  <si>
-    <t>Benjamin Brand</t>
-  </si>
-  <si>
-    <t>Matthias Jöllenbeck</t>
+    <t>Florian Exner</t>
+  </si>
+  <si>
+    <t>Martin Petersen</t>
   </si>
   <si>
     <t>Timo Gerach</t>
   </si>
   <si>
-    <t>Christian Dingert</t>
-  </si>
-  <si>
-    <t>Harm Osmers</t>
-  </si>
-  <si>
-    <t>Tobias Welz</t>
-  </si>
-  <si>
-    <t>Sascha Stegemann</t>
-  </si>
-  <si>
-    <t>Tobias Stieler</t>
-  </si>
-  <si>
-    <t>Florian Exner</t>
-  </si>
-  <si>
-    <t>Martin Petersen</t>
-  </si>
-  <si>
     <t>Sven Jablonski</t>
   </si>
   <si>
     <t>Max Burda</t>
+  </si>
+  <si>
+    <t>Frank Willenborg</t>
   </si>
   <si>
     <t>Robert Schröder</t>
@@ -318,40 +324,40 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D3" t="n">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
       <c r="E3" t="n">
-        <v>43.333333333333336</v>
+        <v>37.5</v>
       </c>
       <c r="F3" t="n">
-        <v>1100.0</v>
+        <v>1200.0</v>
       </c>
       <c r="G3" t="n">
-        <v>366.6666666666667</v>
+        <v>300.0</v>
       </c>
       <c r="H3" t="n">
         <v>500.0</v>
       </c>
       <c r="I3" t="n">
-        <v>166.66666666666666</v>
+        <v>125.0</v>
       </c>
       <c r="J3" t="n">
-        <v>29.666666666666668</v>
+        <v>34.75</v>
       </c>
       <c r="K3" t="n">
-        <v>47.666666666666664</v>
+        <v>57.75</v>
       </c>
       <c r="L3" t="n">
-        <v>29.0</v>
+        <v>34.25</v>
       </c>
       <c r="M3" t="n">
-        <v>2.03125</v>
+        <v>1.7857142857142858</v>
       </c>
     </row>
     <row r="4">
@@ -359,40 +365,40 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D4" t="n">
-        <v>90.0</v>
+        <v>165.0</v>
       </c>
       <c r="E4" t="n">
-        <v>30.0</v>
+        <v>41.25</v>
       </c>
       <c r="F4" t="n">
-        <v>400.0</v>
+        <v>1050.0</v>
       </c>
       <c r="G4" t="n">
-        <v>133.33333333333334</v>
+        <v>262.5</v>
       </c>
       <c r="H4" t="n">
-        <v>600.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I4" t="n">
-        <v>200.0</v>
+        <v>250.0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.333333333333336</v>
+        <v>44.75</v>
       </c>
       <c r="K4" t="n">
-        <v>57.666666666666664</v>
+        <v>47.75</v>
       </c>
       <c r="L4" t="n">
-        <v>36.0</v>
+        <v>31.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.6071428571428572</v>
+        <v>2.1153846153846154</v>
       </c>
     </row>
     <row r="5">
@@ -400,40 +406,40 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" t="n">
-        <v>150.0</v>
+        <v>155.0</v>
       </c>
       <c r="E5" t="n">
-        <v>50.0</v>
+        <v>38.75</v>
       </c>
       <c r="F5" t="n">
-        <v>1800.0</v>
+        <v>1250.0</v>
       </c>
       <c r="G5" t="n">
-        <v>600.0</v>
+        <v>312.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1600.0</v>
+        <v>950.0</v>
       </c>
       <c r="I5" t="n">
-        <v>533.3333333333334</v>
+        <v>237.5</v>
       </c>
       <c r="J5" t="n">
-        <v>51.0</v>
+        <v>48.5</v>
       </c>
       <c r="K5" t="n">
-        <v>30.0</v>
+        <v>54.75</v>
       </c>
       <c r="L5" t="n">
-        <v>27.0</v>
+        <v>42.5</v>
       </c>
       <c r="M5" t="n">
-        <v>2.0</v>
+        <v>1.802325581395349</v>
       </c>
     </row>
     <row r="6">
@@ -441,40 +447,40 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D6" t="n">
-        <v>125.0</v>
+        <v>130.0</v>
       </c>
       <c r="E6" t="n">
-        <v>41.666666666666664</v>
+        <v>32.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1050.0</v>
+        <v>900.0</v>
       </c>
       <c r="G6" t="n">
-        <v>350.0</v>
+        <v>225.0</v>
       </c>
       <c r="H6" t="n">
-        <v>750.0</v>
+        <v>600.0</v>
       </c>
       <c r="I6" t="n">
-        <v>250.0</v>
+        <v>150.0</v>
       </c>
       <c r="J6" t="n">
-        <v>48.0</v>
+        <v>62.5</v>
       </c>
       <c r="K6" t="n">
-        <v>60.333333333333336</v>
+        <v>29.0</v>
       </c>
       <c r="L6" t="n">
-        <v>44.0</v>
+        <v>43.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.9230769230769231</v>
+        <v>1.5853658536585367</v>
       </c>
     </row>
     <row r="7">
@@ -482,40 +488,40 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D7" t="n">
-        <v>90.0</v>
+        <v>325.0</v>
       </c>
       <c r="E7" t="n">
-        <v>30.0</v>
+        <v>81.25</v>
       </c>
       <c r="F7" t="n">
-        <v>600.0</v>
+        <v>7175.0</v>
       </c>
       <c r="G7" t="n">
-        <v>200.0</v>
+        <v>1793.75</v>
       </c>
       <c r="H7" t="n">
-        <v>600.0</v>
+        <v>2300.0</v>
       </c>
       <c r="I7" t="n">
-        <v>200.0</v>
+        <v>575.0</v>
       </c>
       <c r="J7" t="n">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.0</v>
+        <v>35.75</v>
       </c>
       <c r="L7" t="n">
-        <v>33.333333333333336</v>
+        <v>35.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.4754098360655739</v>
+        <v>4.113924050632911</v>
       </c>
     </row>
     <row r="8">
@@ -523,40 +529,40 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D8" t="n">
-        <v>185.0</v>
+        <v>190.0</v>
       </c>
       <c r="E8" t="n">
-        <v>61.666666666666664</v>
+        <v>47.5</v>
       </c>
       <c r="F8" t="n">
-        <v>2500.0</v>
+        <v>2300.0</v>
       </c>
       <c r="G8" t="n">
-        <v>833.3333333333334</v>
+        <v>575.0</v>
       </c>
       <c r="H8" t="n">
-        <v>1700.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I8" t="n">
-        <v>566.6666666666666</v>
+        <v>500.0</v>
       </c>
       <c r="J8" t="n">
-        <v>46.333333333333336</v>
+        <v>25.75</v>
       </c>
       <c r="K8" t="n">
-        <v>37.333333333333336</v>
+        <v>62.25</v>
       </c>
       <c r="L8" t="n">
-        <v>37.333333333333336</v>
+        <v>46.0</v>
       </c>
       <c r="M8" t="n">
-        <v>3.3035714285714284</v>
+        <v>2.021276595744681</v>
       </c>
     </row>
     <row r="9">
@@ -564,40 +570,40 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D9" t="n">
-        <v>120.0</v>
+        <v>205.0</v>
       </c>
       <c r="E9" t="n">
-        <v>40.0</v>
+        <v>51.25</v>
       </c>
       <c r="F9" t="n">
-        <v>1100.0</v>
+        <v>3250.0</v>
       </c>
       <c r="G9" t="n">
-        <v>366.6666666666667</v>
+        <v>812.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1000.0</v>
+        <v>3300.0</v>
       </c>
       <c r="I9" t="n">
-        <v>333.3333333333333</v>
+        <v>825.0</v>
       </c>
       <c r="J9" t="n">
-        <v>24.333333333333332</v>
+        <v>6.25</v>
       </c>
       <c r="K9" t="n">
-        <v>65.66666666666667</v>
+        <v>49.0</v>
       </c>
       <c r="L9" t="n">
-        <v>51.333333333333336</v>
+        <v>45.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.791044776119403</v>
+        <v>1.9158878504672898</v>
       </c>
     </row>
     <row r="10">
@@ -605,40 +611,40 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D10" t="n">
-        <v>160.0</v>
+        <v>135.0</v>
       </c>
       <c r="E10" t="n">
-        <v>53.333333333333336</v>
+        <v>33.75</v>
       </c>
       <c r="F10" t="n">
-        <v>4225.0</v>
+        <v>1450.0</v>
       </c>
       <c r="G10" t="n">
-        <v>1408.3333333333333</v>
+        <v>362.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1500.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I10" t="n">
-        <v>500.0</v>
+        <v>300.0</v>
       </c>
       <c r="J10" t="n">
-        <v>85.0</v>
+        <v>76.75</v>
       </c>
       <c r="K10" t="n">
-        <v>27.666666666666668</v>
+        <v>51.0</v>
       </c>
       <c r="L10" t="n">
-        <v>57.333333333333336</v>
+        <v>47.25</v>
       </c>
       <c r="M10" t="n">
-        <v>2.6666666666666665</v>
+        <v>1.9565217391304348</v>
       </c>
     </row>
     <row r="11">
@@ -646,40 +652,40 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D11" t="n">
-        <v>175.0</v>
+        <v>150.0</v>
       </c>
       <c r="E11" t="n">
-        <v>58.333333333333336</v>
+        <v>37.5</v>
       </c>
       <c r="F11" t="n">
-        <v>3250.0</v>
+        <v>1400.0</v>
       </c>
       <c r="G11" t="n">
-        <v>1083.3333333333333</v>
+        <v>350.0</v>
       </c>
       <c r="H11" t="n">
-        <v>3300.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I11" t="n">
-        <v>1100.0</v>
+        <v>300.0</v>
       </c>
       <c r="J11" t="n">
-        <v>8.333333333333334</v>
+        <v>27.5</v>
       </c>
       <c r="K11" t="n">
-        <v>40.0</v>
+        <v>45.5</v>
       </c>
       <c r="L11" t="n">
-        <v>35.333333333333336</v>
+        <v>26.5</v>
       </c>
       <c r="M11" t="n">
-        <v>2.0348837209302326</v>
+        <v>1.9736842105263157</v>
       </c>
     </row>
     <row r="12">
@@ -687,40 +693,40 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
       </c>
       <c r="D12" t="n">
-        <v>105.0</v>
+        <v>70.0</v>
       </c>
       <c r="E12" t="n">
-        <v>35.0</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="F12" t="n">
-        <v>1250.0</v>
+        <v>200.0</v>
       </c>
       <c r="G12" t="n">
-        <v>416.6666666666667</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>1000.0</v>
+        <v>400.0</v>
       </c>
       <c r="I12" t="n">
-        <v>333.3333333333333</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>71.66666666666667</v>
+        <v>21.0</v>
       </c>
       <c r="K12" t="n">
-        <v>53.333333333333336</v>
+        <v>17.666666666666668</v>
       </c>
       <c r="L12" t="n">
-        <v>48.333333333333336</v>
+        <v>27.666666666666668</v>
       </c>
       <c r="M12" t="n">
-        <v>2.1875</v>
+        <v>0.8641975308641975</v>
       </c>
     </row>
     <row r="13">
@@ -728,37 +734,37 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="n">
         <v>3.0</v>
       </c>
       <c r="D13" t="n">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
       <c r="E13" t="n">
-        <v>43.333333333333336</v>
+        <v>50.0</v>
       </c>
       <c r="F13" t="n">
-        <v>1400.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G13" t="n">
-        <v>466.6666666666667</v>
+        <v>600.0</v>
       </c>
       <c r="H13" t="n">
-        <v>1100.0</v>
+        <v>1600.0</v>
       </c>
       <c r="I13" t="n">
-        <v>366.6666666666667</v>
+        <v>533.3333333333334</v>
       </c>
       <c r="J13" t="n">
-        <v>36.666666666666664</v>
+        <v>51.0</v>
       </c>
       <c r="K13" t="n">
-        <v>50.333333333333336</v>
+        <v>30.0</v>
       </c>
       <c r="L13" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="M13" t="n">
         <v>2.0</v>
@@ -769,40 +775,40 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="n">
         <v>3.0</v>
       </c>
       <c r="D14" t="n">
-        <v>150.0</v>
+        <v>185.0</v>
       </c>
       <c r="E14" t="n">
-        <v>50.0</v>
+        <v>61.666666666666664</v>
       </c>
       <c r="F14" t="n">
-        <v>1900.0</v>
+        <v>3350.0</v>
       </c>
       <c r="G14" t="n">
-        <v>633.3333333333334</v>
+        <v>1116.6666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>1200.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I14" t="n">
-        <v>400.0</v>
+        <v>666.6666666666666</v>
       </c>
       <c r="J14" t="n">
         <v>45.333333333333336</v>
       </c>
       <c r="K14" t="n">
-        <v>68.33333333333333</v>
+        <v>37.0</v>
       </c>
       <c r="L14" t="n">
-        <v>45.333333333333336</v>
+        <v>27.0</v>
       </c>
       <c r="M14" t="n">
-        <v>2.4193548387096775</v>
+        <v>2.9838709677419355</v>
       </c>
     </row>
     <row r="15">
@@ -810,40 +816,40 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D15" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>650.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>166.66666666666666</v>
+      </c>
+      <c r="J15" t="n">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="K15" t="n">
         <v>40.0</v>
       </c>
-      <c r="E15" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>10.0</v>
-      </c>
       <c r="L15" t="n">
-        <v>25.5</v>
+        <v>30.333333333333332</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7547169811320755</v>
+        <v>2.2131147540983607</v>
       </c>
     </row>
     <row r="16">
@@ -851,40 +857,40 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D16" t="n">
-        <v>80.0</v>
+        <v>175.0</v>
       </c>
       <c r="E16" t="n">
-        <v>40.0</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="F16" t="n">
-        <v>600.0</v>
+        <v>3400.0</v>
       </c>
       <c r="G16" t="n">
-        <v>300.0</v>
+        <v>1133.3333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>800.0</v>
+        <v>2200.0</v>
       </c>
       <c r="I16" t="n">
-        <v>400.0</v>
+        <v>733.3333333333334</v>
       </c>
       <c r="J16" t="n">
-        <v>53.0</v>
+        <v>18.0</v>
       </c>
       <c r="K16" t="n">
-        <v>36.5</v>
+        <v>62.0</v>
       </c>
       <c r="L16" t="n">
-        <v>25.5</v>
+        <v>39.333333333333336</v>
       </c>
       <c r="M16" t="n">
-        <v>1.9047619047619047</v>
+        <v>2.6923076923076925</v>
       </c>
     </row>
     <row r="17">
@@ -892,40 +898,40 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D17" t="n">
-        <v>50.0</v>
+        <v>130.0</v>
       </c>
       <c r="E17" t="n">
-        <v>25.0</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="F17" t="n">
-        <v>300.0</v>
+        <v>1500.0</v>
       </c>
       <c r="G17" t="n">
-        <v>150.0</v>
+        <v>500.0</v>
       </c>
       <c r="H17" t="n">
-        <v>100.0</v>
+        <v>1300.0</v>
       </c>
       <c r="I17" t="n">
-        <v>50.0</v>
+        <v>433.3333333333333</v>
       </c>
       <c r="J17" t="n">
-        <v>66.5</v>
+        <v>24.0</v>
       </c>
       <c r="K17" t="n">
-        <v>24.5</v>
+        <v>32.0</v>
       </c>
       <c r="L17" t="n">
-        <v>24.5</v>
+        <v>32.0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.3157894736842106</v>
+        <v>2.03125</v>
       </c>
     </row>
     <row r="18">
@@ -933,40 +939,40 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D18" t="n">
-        <v>155.0</v>
+        <v>160.0</v>
       </c>
       <c r="E18" t="n">
-        <v>77.5</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="F18" t="n">
-        <v>3400.0</v>
+        <v>4225.0</v>
       </c>
       <c r="G18" t="n">
-        <v>1700.0</v>
+        <v>1408.3333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>2200.0</v>
+        <v>1500.0</v>
       </c>
       <c r="I18" t="n">
-        <v>1100.0</v>
+        <v>500.0</v>
       </c>
       <c r="J18" t="n">
-        <v>27.0</v>
+        <v>85.0</v>
       </c>
       <c r="K18" t="n">
-        <v>61.0</v>
+        <v>27.666666666666668</v>
       </c>
       <c r="L18" t="n">
-        <v>27.0</v>
+        <v>57.333333333333336</v>
       </c>
       <c r="M18" t="n">
-        <v>3.4444444444444446</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="19">
@@ -974,40 +980,40 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D19" t="n">
-        <v>60.0</v>
+        <v>260.0</v>
       </c>
       <c r="E19" t="n">
-        <v>30.0</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="F19" t="n">
-        <v>300.0</v>
+        <v>7125.0</v>
       </c>
       <c r="G19" t="n">
-        <v>150.0</v>
+        <v>2375.0</v>
       </c>
       <c r="H19" t="n">
-        <v>300.0</v>
+        <v>3650.0</v>
       </c>
       <c r="I19" t="n">
-        <v>150.0</v>
+        <v>1216.6666666666667</v>
       </c>
       <c r="J19" t="n">
-        <v>25.5</v>
+        <v>22.0</v>
       </c>
       <c r="K19" t="n">
-        <v>44.0</v>
+        <v>37.666666666666664</v>
       </c>
       <c r="L19" t="n">
-        <v>44.0</v>
+        <v>12.333333333333334</v>
       </c>
       <c r="M19" t="n">
-        <v>1.4634146341463414</v>
+        <v>3.611111111111111</v>
       </c>
     </row>
     <row r="20">
@@ -1015,40 +1021,40 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D20" t="n">
-        <v>240.0</v>
+        <v>130.0</v>
       </c>
       <c r="E20" t="n">
-        <v>120.0</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="F20" t="n">
-        <v>7025.0</v>
+        <v>1000.0</v>
       </c>
       <c r="G20" t="n">
-        <v>3512.5</v>
+        <v>333.3333333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>3650.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I20" t="n">
-        <v>1825.0</v>
+        <v>400.0</v>
       </c>
       <c r="J20" t="n">
-        <v>27.0</v>
+        <v>69.0</v>
       </c>
       <c r="K20" t="n">
-        <v>33.5</v>
+        <v>62.0</v>
       </c>
       <c r="L20" t="n">
-        <v>12.5</v>
+        <v>43.666666666666664</v>
       </c>
       <c r="M20" t="n">
-        <v>4.705882352941177</v>
+        <v>1.4942528735632183</v>
       </c>
     </row>
     <row r="21">
@@ -1056,40 +1062,40 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D21" t="n">
-        <v>80.0</v>
+        <v>150.0</v>
       </c>
       <c r="E21" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="F21" t="n">
-        <v>400.0</v>
+        <v>1900.0</v>
       </c>
       <c r="G21" t="n">
-        <v>200.0</v>
+        <v>633.3333333333334</v>
       </c>
       <c r="H21" t="n">
-        <v>800.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I21" t="n">
         <v>400.0</v>
       </c>
       <c r="J21" t="n">
-        <v>66.5</v>
+        <v>45.333333333333336</v>
       </c>
       <c r="K21" t="n">
-        <v>73.0</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="L21" t="n">
-        <v>45.5</v>
+        <v>45.333333333333336</v>
       </c>
       <c r="M21" t="n">
-        <v>1.4545454545454546</v>
+        <v>2.4193548387096775</v>
       </c>
     </row>
     <row r="22">
@@ -1097,40 +1103,40 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D22" t="n">
-        <v>145.0</v>
+        <v>195.0</v>
       </c>
       <c r="E22" t="n">
-        <v>72.5</v>
+        <v>65.0</v>
       </c>
       <c r="F22" t="n">
-        <v>2850.0</v>
+        <v>3450.0</v>
       </c>
       <c r="G22" t="n">
-        <v>1425.0</v>
+        <v>1150.0</v>
       </c>
       <c r="H22" t="n">
-        <v>1200.0</v>
+        <v>1500.0</v>
       </c>
       <c r="I22" t="n">
-        <v>600.0</v>
+        <v>500.0</v>
       </c>
       <c r="J22" t="n">
-        <v>49.5</v>
+        <v>59.333333333333336</v>
       </c>
       <c r="K22" t="n">
-        <v>25.0</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="L22" t="n">
-        <v>25.0</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="M22" t="n">
-        <v>2.5</v>
+        <v>2.635135135135135</v>
       </c>
     </row>
     <row r="23">
@@ -1138,7 +1144,7 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" t="n">
         <v>1.0</v>
@@ -1179,39 +1185,80 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" t="n">
         <v>1.0</v>
       </c>
       <c r="D24" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D25" t="n">
         <v>40.0</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E25" t="n">
         <v>40.0</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F25" t="n">
         <v>400.0</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G25" t="n">
         <v>400.0</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>0.0</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I25" t="n">
         <v>0.0</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J25" t="n">
         <v>82.0</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K25" t="n">
         <v>63.0</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L25" t="n">
         <v>63.0</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M25" t="n">
         <v>1.2903225806451613</v>
       </c>
     </row>

--- a/BUNDES_refereestats.xlsx
+++ b/BUNDES_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Referee</t>
   </si>
@@ -122,70 +122,76 @@
     <t>24</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>Florian Badstübner</t>
   </si>
   <si>
+    <t>Robert Hartmann</t>
+  </si>
+  <si>
     <t>Bastian Dankert</t>
   </si>
   <si>
+    <t>Christian Dingert</t>
+  </si>
+  <si>
+    <t>Felix Zwayer</t>
+  </si>
+  <si>
     <t>Daniel Schlager</t>
   </si>
   <si>
+    <t>Harm Osmers</t>
+  </si>
+  <si>
     <t>Felix Brych</t>
   </si>
   <si>
-    <t>Robert Hartmann</t>
+    <t>Martin Petersen</t>
+  </si>
+  <si>
+    <t>Tobias Reichel</t>
+  </si>
+  <si>
+    <t>Benjamin Brand</t>
+  </si>
+  <si>
+    <t>Sascha Stegemann</t>
+  </si>
+  <si>
+    <t>Tobias Stieler</t>
   </si>
   <si>
     <t>Daniel Siebert</t>
   </si>
   <si>
-    <t>Tobias Reichel</t>
-  </si>
-  <si>
-    <t>Benjamin Brand</t>
+    <t>Sören Storks</t>
   </si>
   <si>
     <t>Matthias Jöllenbeck</t>
   </si>
   <si>
-    <t>Christian Dingert</t>
-  </si>
-  <si>
-    <t>Felix Zwayer</t>
-  </si>
-  <si>
-    <t>Harm Osmers</t>
+    <t>Timo Gerach</t>
+  </si>
+  <si>
+    <t>Sven Jablonski</t>
   </si>
   <si>
     <t>Tobias Welz</t>
   </si>
   <si>
-    <t>Sascha Stegemann</t>
-  </si>
-  <si>
-    <t>Tobias Stieler</t>
-  </si>
-  <si>
-    <t>Sören Storks</t>
-  </si>
-  <si>
     <t>Florian Exner</t>
   </si>
   <si>
-    <t>Martin Petersen</t>
-  </si>
-  <si>
-    <t>Timo Gerach</t>
-  </si>
-  <si>
-    <t>Sven Jablonski</t>
+    <t>Frank Willenborg</t>
   </si>
   <si>
     <t>Max Burda</t>
   </si>
   <si>
-    <t>Frank Willenborg</t>
+    <t>Robin Braun</t>
   </si>
   <si>
     <t>Robert Schröder</t>
@@ -324,40 +330,40 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D3" t="n">
-        <v>150.0</v>
+        <v>325.0</v>
       </c>
       <c r="E3" t="n">
-        <v>37.5</v>
+        <v>46.42857142857143</v>
       </c>
       <c r="F3" t="n">
-        <v>1200.0</v>
+        <v>3850.0</v>
       </c>
       <c r="G3" t="n">
-        <v>300.0</v>
+        <v>550.0</v>
       </c>
       <c r="H3" t="n">
-        <v>500.0</v>
+        <v>1950.0</v>
       </c>
       <c r="I3" t="n">
-        <v>125.0</v>
+        <v>278.57142857142856</v>
       </c>
       <c r="J3" t="n">
-        <v>34.75</v>
+        <v>37.42857142857143</v>
       </c>
       <c r="K3" t="n">
-        <v>57.75</v>
+        <v>48.857142857142854</v>
       </c>
       <c r="L3" t="n">
-        <v>34.25</v>
+        <v>32.42857142857143</v>
       </c>
       <c r="M3" t="n">
-        <v>1.7857142857142858</v>
+        <v>2.1103896103896105</v>
       </c>
     </row>
     <row r="4">
@@ -365,40 +371,40 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D4" t="n">
-        <v>165.0</v>
+        <v>405.0</v>
       </c>
       <c r="E4" t="n">
-        <v>41.25</v>
+        <v>57.857142857142854</v>
       </c>
       <c r="F4" t="n">
-        <v>1050.0</v>
+        <v>7875.0</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5</v>
+        <v>1125.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1000.0</v>
+        <v>2900.0</v>
       </c>
       <c r="I4" t="n">
-        <v>250.0</v>
+        <v>414.2857142857143</v>
       </c>
       <c r="J4" t="n">
-        <v>44.75</v>
+        <v>45.857142857142854</v>
       </c>
       <c r="K4" t="n">
-        <v>47.75</v>
+        <v>40.142857142857146</v>
       </c>
       <c r="L4" t="n">
-        <v>31.5</v>
+        <v>40.142857142857146</v>
       </c>
       <c r="M4" t="n">
-        <v>2.1153846153846154</v>
+        <v>2.9779411764705883</v>
       </c>
     </row>
     <row r="5">
@@ -406,40 +412,40 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D5" t="n">
-        <v>155.0</v>
+        <v>205.0</v>
       </c>
       <c r="E5" t="n">
-        <v>38.75</v>
+        <v>34.166666666666664</v>
       </c>
       <c r="F5" t="n">
-        <v>1250.0</v>
+        <v>1450.0</v>
       </c>
       <c r="G5" t="n">
-        <v>312.5</v>
+        <v>241.66666666666666</v>
       </c>
       <c r="H5" t="n">
-        <v>950.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I5" t="n">
-        <v>237.5</v>
+        <v>233.33333333333334</v>
       </c>
       <c r="J5" t="n">
-        <v>48.5</v>
+        <v>31.833333333333332</v>
       </c>
       <c r="K5" t="n">
-        <v>54.75</v>
+        <v>32.0</v>
       </c>
       <c r="L5" t="n">
-        <v>42.5</v>
+        <v>21.166666666666668</v>
       </c>
       <c r="M5" t="n">
-        <v>1.802325581395349</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -447,40 +453,40 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D6" t="n">
-        <v>130.0</v>
+        <v>240.0</v>
       </c>
       <c r="E6" t="n">
-        <v>32.5</v>
+        <v>40.0</v>
       </c>
       <c r="F6" t="n">
-        <v>900.0</v>
+        <v>2600.0</v>
       </c>
       <c r="G6" t="n">
-        <v>225.0</v>
+        <v>433.3333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>600.0</v>
+        <v>2800.0</v>
       </c>
       <c r="I6" t="n">
-        <v>150.0</v>
+        <v>466.6666666666667</v>
       </c>
       <c r="J6" t="n">
-        <v>62.5</v>
+        <v>28.0</v>
       </c>
       <c r="K6" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
       <c r="L6" t="n">
-        <v>43.5</v>
+        <v>26.0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.5853658536585367</v>
+        <v>1.4201183431952662</v>
       </c>
     </row>
     <row r="7">
@@ -488,40 +494,40 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D7" t="n">
-        <v>325.0</v>
+        <v>300.0</v>
       </c>
       <c r="E7" t="n">
-        <v>81.25</v>
+        <v>50.0</v>
       </c>
       <c r="F7" t="n">
-        <v>7175.0</v>
+        <v>3400.0</v>
       </c>
       <c r="G7" t="n">
-        <v>1793.75</v>
+        <v>566.6666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>2300.0</v>
+        <v>3200.0</v>
       </c>
       <c r="I7" t="n">
-        <v>575.0</v>
+        <v>533.3333333333334</v>
       </c>
       <c r="J7" t="n">
-        <v>47.0</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="K7" t="n">
-        <v>35.75</v>
+        <v>23.166666666666668</v>
       </c>
       <c r="L7" t="n">
-        <v>35.75</v>
+        <v>23.666666666666668</v>
       </c>
       <c r="M7" t="n">
-        <v>4.113924050632911</v>
+        <v>2.1739130434782608</v>
       </c>
     </row>
     <row r="8">
@@ -529,40 +535,40 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D8" t="n">
-        <v>190.0</v>
+        <v>220.0</v>
       </c>
       <c r="E8" t="n">
-        <v>47.5</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="F8" t="n">
-        <v>2300.0</v>
+        <v>1350.0</v>
       </c>
       <c r="G8" t="n">
-        <v>575.0</v>
+        <v>225.0</v>
       </c>
       <c r="H8" t="n">
-        <v>2000.0</v>
+        <v>950.0</v>
       </c>
       <c r="I8" t="n">
-        <v>500.0</v>
+        <v>158.33333333333334</v>
       </c>
       <c r="J8" t="n">
-        <v>25.75</v>
+        <v>43.833333333333336</v>
       </c>
       <c r="K8" t="n">
-        <v>62.25</v>
+        <v>57.166666666666664</v>
       </c>
       <c r="L8" t="n">
-        <v>46.0</v>
+        <v>47.666666666666664</v>
       </c>
       <c r="M8" t="n">
-        <v>2.021276595744681</v>
+        <v>1.71875</v>
       </c>
     </row>
     <row r="9">
@@ -570,40 +576,40 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D9" t="n">
-        <v>205.0</v>
+        <v>345.0</v>
       </c>
       <c r="E9" t="n">
-        <v>51.25</v>
+        <v>57.5</v>
       </c>
       <c r="F9" t="n">
-        <v>3250.0</v>
+        <v>5050.0</v>
       </c>
       <c r="G9" t="n">
-        <v>812.5</v>
+        <v>841.6666666666666</v>
       </c>
       <c r="H9" t="n">
-        <v>3300.0</v>
+        <v>3800.0</v>
       </c>
       <c r="I9" t="n">
-        <v>825.0</v>
+        <v>633.3333333333334</v>
       </c>
       <c r="J9" t="n">
-        <v>6.25</v>
+        <v>49.166666666666664</v>
       </c>
       <c r="K9" t="n">
-        <v>49.0</v>
+        <v>39.0</v>
       </c>
       <c r="L9" t="n">
-        <v>45.5</v>
+        <v>33.666666666666664</v>
       </c>
       <c r="M9" t="n">
-        <v>1.9158878504672898</v>
+        <v>2.574626865671642</v>
       </c>
     </row>
     <row r="10">
@@ -611,40 +617,40 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D10" t="n">
-        <v>135.0</v>
+        <v>230.0</v>
       </c>
       <c r="E10" t="n">
-        <v>33.75</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="F10" t="n">
-        <v>1450.0</v>
+        <v>1700.0</v>
       </c>
       <c r="G10" t="n">
-        <v>362.5</v>
+        <v>283.3333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1200.0</v>
+        <v>600.0</v>
       </c>
       <c r="I10" t="n">
-        <v>300.0</v>
+        <v>100.0</v>
       </c>
       <c r="J10" t="n">
-        <v>76.75</v>
+        <v>59.833333333333336</v>
       </c>
       <c r="K10" t="n">
-        <v>51.0</v>
+        <v>33.5</v>
       </c>
       <c r="L10" t="n">
-        <v>47.25</v>
+        <v>43.166666666666664</v>
       </c>
       <c r="M10" t="n">
-        <v>1.9565217391304348</v>
+        <v>1.9327731092436975</v>
       </c>
     </row>
     <row r="11">
@@ -652,40 +658,40 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D11" t="n">
-        <v>150.0</v>
+        <v>275.0</v>
       </c>
       <c r="E11" t="n">
-        <v>37.5</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="F11" t="n">
-        <v>1400.0</v>
+        <v>2700.0</v>
       </c>
       <c r="G11" t="n">
-        <v>350.0</v>
+        <v>450.0</v>
       </c>
       <c r="H11" t="n">
-        <v>1200.0</v>
+        <v>3050.0</v>
       </c>
       <c r="I11" t="n">
-        <v>300.0</v>
+        <v>508.3333333333333</v>
       </c>
       <c r="J11" t="n">
-        <v>27.5</v>
+        <v>56.833333333333336</v>
       </c>
       <c r="K11" t="n">
-        <v>45.5</v>
+        <v>49.0</v>
       </c>
       <c r="L11" t="n">
-        <v>26.5</v>
+        <v>32.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.9736842105263157</v>
+        <v>1.870748299319728</v>
       </c>
     </row>
     <row r="12">
@@ -693,40 +699,40 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D12" t="n">
-        <v>70.0</v>
+        <v>285.0</v>
       </c>
       <c r="E12" t="n">
-        <v>23.333333333333332</v>
+        <v>47.5</v>
       </c>
       <c r="F12" t="n">
-        <v>200.0</v>
+        <v>4150.0</v>
       </c>
       <c r="G12" t="n">
-        <v>66.66666666666667</v>
+        <v>691.6666666666666</v>
       </c>
       <c r="H12" t="n">
-        <v>400.0</v>
+        <v>4200.0</v>
       </c>
       <c r="I12" t="n">
-        <v>133.33333333333334</v>
+        <v>700.0</v>
       </c>
       <c r="J12" t="n">
-        <v>21.0</v>
+        <v>10.166666666666666</v>
       </c>
       <c r="K12" t="n">
-        <v>17.666666666666668</v>
+        <v>44.0</v>
       </c>
       <c r="L12" t="n">
-        <v>27.666666666666668</v>
+        <v>36.333333333333336</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8641975308641975</v>
+        <v>1.8269230769230769</v>
       </c>
     </row>
     <row r="13">
@@ -734,40 +740,40 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D13" t="n">
-        <v>150.0</v>
+        <v>225.0</v>
       </c>
       <c r="E13" t="n">
-        <v>50.0</v>
+        <v>37.5</v>
       </c>
       <c r="F13" t="n">
+        <v>2350.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>391.6666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>1800.0</v>
       </c>
-      <c r="G13" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1600.0</v>
-      </c>
       <c r="I13" t="n">
-        <v>533.3333333333334</v>
+        <v>300.0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.0</v>
+        <v>63.833333333333336</v>
       </c>
       <c r="K13" t="n">
-        <v>30.0</v>
+        <v>47.0</v>
       </c>
       <c r="L13" t="n">
-        <v>27.0</v>
+        <v>40.833333333333336</v>
       </c>
       <c r="M13" t="n">
-        <v>2.0</v>
+        <v>1.9230769230769231</v>
       </c>
     </row>
     <row r="14">
@@ -775,40 +781,40 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D14" t="n">
-        <v>185.0</v>
+        <v>235.0</v>
       </c>
       <c r="E14" t="n">
-        <v>61.666666666666664</v>
+        <v>47.0</v>
       </c>
       <c r="F14" t="n">
-        <v>3350.0</v>
+        <v>3800.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1116.6666666666667</v>
+        <v>760.0</v>
       </c>
       <c r="H14" t="n">
-        <v>2000.0</v>
+        <v>2800.0</v>
       </c>
       <c r="I14" t="n">
-        <v>666.6666666666666</v>
+        <v>560.0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.333333333333336</v>
+        <v>26.4</v>
       </c>
       <c r="K14" t="n">
-        <v>37.0</v>
+        <v>54.6</v>
       </c>
       <c r="L14" t="n">
-        <v>27.0</v>
+        <v>39.2</v>
       </c>
       <c r="M14" t="n">
-        <v>2.9838709677419355</v>
+        <v>2.422680412371134</v>
       </c>
     </row>
     <row r="15">
@@ -816,40 +822,40 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D15" t="n">
-        <v>135.0</v>
+        <v>235.0</v>
       </c>
       <c r="E15" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="F15" t="n">
-        <v>1950.0</v>
+        <v>2800.0</v>
       </c>
       <c r="G15" t="n">
-        <v>650.0</v>
+        <v>560.0</v>
       </c>
       <c r="H15" t="n">
-        <v>500.0</v>
+        <v>1800.0</v>
       </c>
       <c r="I15" t="n">
-        <v>166.66666666666666</v>
+        <v>360.0</v>
       </c>
       <c r="J15" t="n">
-        <v>58.333333333333336</v>
+        <v>23.4</v>
       </c>
       <c r="K15" t="n">
-        <v>40.0</v>
+        <v>37.6</v>
       </c>
       <c r="L15" t="n">
-        <v>30.333333333333332</v>
+        <v>28.2</v>
       </c>
       <c r="M15" t="n">
-        <v>2.2131147540983607</v>
+        <v>2.079646017699115</v>
       </c>
     </row>
     <row r="16">
@@ -857,40 +863,40 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D16" t="n">
-        <v>175.0</v>
+        <v>230.0</v>
       </c>
       <c r="E16" t="n">
-        <v>58.333333333333336</v>
+        <v>46.0</v>
       </c>
       <c r="F16" t="n">
-        <v>3400.0</v>
+        <v>2600.0</v>
       </c>
       <c r="G16" t="n">
-        <v>1133.3333333333333</v>
+        <v>520.0</v>
       </c>
       <c r="H16" t="n">
-        <v>2200.0</v>
+        <v>2300.0</v>
       </c>
       <c r="I16" t="n">
-        <v>733.3333333333334</v>
+        <v>460.0</v>
       </c>
       <c r="J16" t="n">
-        <v>18.0</v>
+        <v>23.8</v>
       </c>
       <c r="K16" t="n">
-        <v>62.0</v>
+        <v>55.4</v>
       </c>
       <c r="L16" t="n">
-        <v>39.333333333333336</v>
+        <v>40.0</v>
       </c>
       <c r="M16" t="n">
-        <v>2.6923076923076925</v>
+        <v>1.9327731092436975</v>
       </c>
     </row>
     <row r="17">
@@ -898,40 +904,40 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D17" t="n">
-        <v>130.0</v>
+        <v>220.0</v>
       </c>
       <c r="E17" t="n">
-        <v>43.333333333333336</v>
+        <v>44.0</v>
       </c>
       <c r="F17" t="n">
-        <v>1500.0</v>
+        <v>4825.0</v>
       </c>
       <c r="G17" t="n">
-        <v>500.0</v>
+        <v>965.0</v>
       </c>
       <c r="H17" t="n">
-        <v>1300.0</v>
+        <v>2100.0</v>
       </c>
       <c r="I17" t="n">
-        <v>433.3333333333333</v>
+        <v>420.0</v>
       </c>
       <c r="J17" t="n">
-        <v>24.0</v>
+        <v>73.4</v>
       </c>
       <c r="K17" t="n">
-        <v>32.0</v>
+        <v>30.2</v>
       </c>
       <c r="L17" t="n">
-        <v>32.0</v>
+        <v>56.8</v>
       </c>
       <c r="M17" t="n">
-        <v>2.03125</v>
+        <v>2.2448979591836733</v>
       </c>
     </row>
     <row r="18">
@@ -939,40 +945,40 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D18" t="n">
-        <v>160.0</v>
+        <v>190.0</v>
       </c>
       <c r="E18" t="n">
-        <v>53.333333333333336</v>
+        <v>38.0</v>
       </c>
       <c r="F18" t="n">
-        <v>4225.0</v>
+        <v>1700.0</v>
       </c>
       <c r="G18" t="n">
-        <v>1408.3333333333333</v>
+        <v>340.0</v>
       </c>
       <c r="H18" t="n">
-        <v>1500.0</v>
+        <v>1600.0</v>
       </c>
       <c r="I18" t="n">
-        <v>500.0</v>
+        <v>320.0</v>
       </c>
       <c r="J18" t="n">
-        <v>85.0</v>
+        <v>27.6</v>
       </c>
       <c r="K18" t="n">
-        <v>27.666666666666668</v>
+        <v>43.8</v>
       </c>
       <c r="L18" t="n">
-        <v>57.333333333333336</v>
+        <v>26.8</v>
       </c>
       <c r="M18" t="n">
-        <v>2.6666666666666665</v>
+        <v>2.021276595744681</v>
       </c>
     </row>
     <row r="19">
@@ -980,40 +986,40 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D19" t="n">
         <v>260.0</v>
       </c>
       <c r="E19" t="n">
-        <v>86.66666666666667</v>
+        <v>52.0</v>
       </c>
       <c r="F19" t="n">
-        <v>7125.0</v>
+        <v>3500.0</v>
       </c>
       <c r="G19" t="n">
-        <v>2375.0</v>
+        <v>700.0</v>
       </c>
       <c r="H19" t="n">
-        <v>3650.0</v>
+        <v>2400.0</v>
       </c>
       <c r="I19" t="n">
-        <v>1216.6666666666667</v>
+        <v>480.0</v>
       </c>
       <c r="J19" t="n">
-        <v>22.0</v>
+        <v>44.2</v>
       </c>
       <c r="K19" t="n">
-        <v>37.666666666666664</v>
+        <v>62.8</v>
       </c>
       <c r="L19" t="n">
-        <v>12.333333333333334</v>
+        <v>44.2</v>
       </c>
       <c r="M19" t="n">
-        <v>3.611111111111111</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="20">
@@ -1021,40 +1027,40 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D20" t="n">
-        <v>130.0</v>
+        <v>255.0</v>
       </c>
       <c r="E20" t="n">
-        <v>43.333333333333336</v>
+        <v>51.0</v>
       </c>
       <c r="F20" t="n">
-        <v>1000.0</v>
+        <v>3950.0</v>
       </c>
       <c r="G20" t="n">
-        <v>333.3333333333333</v>
+        <v>790.0</v>
       </c>
       <c r="H20" t="n">
-        <v>1200.0</v>
+        <v>1600.0</v>
       </c>
       <c r="I20" t="n">
-        <v>400.0</v>
+        <v>320.0</v>
       </c>
       <c r="J20" t="n">
-        <v>69.0</v>
+        <v>66.0</v>
       </c>
       <c r="K20" t="n">
-        <v>62.0</v>
+        <v>40.4</v>
       </c>
       <c r="L20" t="n">
-        <v>43.666666666666664</v>
+        <v>37.0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.4942528735632183</v>
+        <v>2.383177570093458</v>
       </c>
     </row>
     <row r="21">
@@ -1062,40 +1068,40 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D21" t="n">
-        <v>150.0</v>
+        <v>205.0</v>
       </c>
       <c r="E21" t="n">
-        <v>50.0</v>
+        <v>51.25</v>
       </c>
       <c r="F21" t="n">
-        <v>1900.0</v>
+        <v>2550.0</v>
       </c>
       <c r="G21" t="n">
-        <v>633.3333333333334</v>
+        <v>637.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1200.0</v>
+        <v>1500.0</v>
       </c>
       <c r="I21" t="n">
-        <v>400.0</v>
+        <v>375.0</v>
       </c>
       <c r="J21" t="n">
-        <v>45.333333333333336</v>
+        <v>52.25</v>
       </c>
       <c r="K21" t="n">
-        <v>68.33333333333333</v>
+        <v>42.0</v>
       </c>
       <c r="L21" t="n">
-        <v>45.333333333333336</v>
+        <v>31.25</v>
       </c>
       <c r="M21" t="n">
-        <v>2.4193548387096775</v>
+        <v>2.1808510638297873</v>
       </c>
     </row>
     <row r="22">
@@ -1103,40 +1109,40 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D22" t="n">
-        <v>195.0</v>
+        <v>280.0</v>
       </c>
       <c r="E22" t="n">
-        <v>65.0</v>
+        <v>70.0</v>
       </c>
       <c r="F22" t="n">
-        <v>3450.0</v>
+        <v>7125.0</v>
       </c>
       <c r="G22" t="n">
-        <v>1150.0</v>
+        <v>1781.25</v>
       </c>
       <c r="H22" t="n">
-        <v>1500.0</v>
+        <v>3750.0</v>
       </c>
       <c r="I22" t="n">
-        <v>500.0</v>
+        <v>937.5</v>
       </c>
       <c r="J22" t="n">
-        <v>59.333333333333336</v>
+        <v>16.5</v>
       </c>
       <c r="K22" t="n">
-        <v>29.333333333333332</v>
+        <v>36.5</v>
       </c>
       <c r="L22" t="n">
-        <v>29.333333333333332</v>
+        <v>17.5</v>
       </c>
       <c r="M22" t="n">
-        <v>2.635135135135135</v>
+        <v>3.1818181818181817</v>
       </c>
     </row>
     <row r="23">
@@ -1144,40 +1150,40 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D23" t="n">
-        <v>30.0</v>
+        <v>170.0</v>
       </c>
       <c r="E23" t="n">
-        <v>30.0</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="F23" t="n">
-        <v>200.0</v>
+        <v>2800.0</v>
       </c>
       <c r="G23" t="n">
-        <v>200.0</v>
+        <v>933.3333333333334</v>
       </c>
       <c r="H23" t="n">
-        <v>200.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I23" t="n">
-        <v>200.0</v>
+        <v>666.6666666666666</v>
       </c>
       <c r="J23" t="n">
-        <v>38.0</v>
+        <v>53.0</v>
       </c>
       <c r="K23" t="n">
-        <v>38.0</v>
+        <v>60.0</v>
       </c>
       <c r="L23" t="n">
-        <v>38.0</v>
+        <v>47.0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.3043478260869565</v>
+        <v>1.9101123595505618</v>
       </c>
     </row>
     <row r="24">
@@ -1185,40 +1191,40 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" t="n">
         <v>1.0</v>
       </c>
       <c r="D24" t="n">
-        <v>90.0</v>
+        <v>30.0</v>
       </c>
       <c r="E24" t="n">
-        <v>90.0</v>
+        <v>30.0</v>
       </c>
       <c r="F24" t="n">
-        <v>2000.0</v>
+        <v>200.0</v>
       </c>
       <c r="G24" t="n">
-        <v>2000.0</v>
+        <v>200.0</v>
       </c>
       <c r="H24" t="n">
-        <v>2000.0</v>
+        <v>200.0</v>
       </c>
       <c r="I24" t="n">
-        <v>2000.0</v>
+        <v>200.0</v>
       </c>
       <c r="J24" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="K24" t="n">
-        <v>17.0</v>
+        <v>38.0</v>
       </c>
       <c r="L24" t="n">
-        <v>17.0</v>
+        <v>38.0</v>
       </c>
       <c r="M24" t="n">
-        <v>3.0</v>
+        <v>1.3043478260869565</v>
       </c>
     </row>
     <row r="25">
@@ -1226,22 +1232,22 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" t="n">
         <v>1.0</v>
       </c>
       <c r="D25" t="n">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
       <c r="E25" t="n">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
       <c r="F25" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="G25" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="H25" t="n">
         <v>0.0</v>
@@ -1250,15 +1256,56 @@
         <v>0.0</v>
       </c>
       <c r="J25" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J26" t="n">
         <v>82.0</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K26" t="n">
         <v>63.0</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L26" t="n">
         <v>63.0</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M26" t="n">
         <v>1.2903225806451613</v>
       </c>
     </row>

--- a/BUNDES_refereestats.xlsx
+++ b/BUNDES_refereestats.xlsx
@@ -128,12 +128,15 @@
     <t>Florian Badstübner</t>
   </si>
   <si>
+    <t>Bastian Dankert</t>
+  </si>
+  <si>
+    <t>Felix Brych</t>
+  </si>
+  <si>
     <t>Robert Hartmann</t>
   </si>
   <si>
-    <t>Bastian Dankert</t>
-  </si>
-  <si>
     <t>Christian Dingert</t>
   </si>
   <si>
@@ -146,7 +149,13 @@
     <t>Harm Osmers</t>
   </si>
   <si>
-    <t>Felix Brych</t>
+    <t>Sascha Stegemann</t>
+  </si>
+  <si>
+    <t>Tobias Stieler</t>
+  </si>
+  <si>
+    <t>Daniel Siebert</t>
   </si>
   <si>
     <t>Martin Petersen</t>
@@ -158,31 +167,22 @@
     <t>Benjamin Brand</t>
   </si>
   <si>
-    <t>Sascha Stegemann</t>
-  </si>
-  <si>
-    <t>Tobias Stieler</t>
-  </si>
-  <si>
-    <t>Daniel Siebert</t>
+    <t>Matthias Jöllenbeck</t>
+  </si>
+  <si>
+    <t>Sven Jablonski</t>
+  </si>
+  <si>
+    <t>Tobias Welz</t>
   </si>
   <si>
     <t>Sören Storks</t>
   </si>
   <si>
-    <t>Matthias Jöllenbeck</t>
+    <t>Florian Exner</t>
   </si>
   <si>
     <t>Timo Gerach</t>
-  </si>
-  <si>
-    <t>Sven Jablonski</t>
-  </si>
-  <si>
-    <t>Tobias Welz</t>
-  </si>
-  <si>
-    <t>Florian Exner</t>
   </si>
   <si>
     <t>Frank Willenborg</t>
@@ -288,82 +288,82 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="e">
-        <v>#N/A</v>
+      <c r="B2" t="s">
+        <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D2" t="n">
         <v>370.0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.111111111111114</v>
+        <v>46.25</v>
       </c>
       <c r="F2" t="n">
-        <v>4150.0</v>
+        <v>4200.0</v>
       </c>
       <c r="G2" t="n">
-        <v>461.1111111111111</v>
+        <v>525.0</v>
       </c>
       <c r="H2" t="n">
-        <v>3050.0</v>
+        <v>2300.0</v>
       </c>
       <c r="I2" t="n">
-        <v>338.8888888888889</v>
+        <v>287.5</v>
       </c>
       <c r="J2" t="n">
-        <v>38.22222222222222</v>
+        <v>40.75</v>
       </c>
       <c r="K2" t="n">
-        <v>40.666666666666664</v>
+        <v>44.125</v>
       </c>
       <c r="L2" t="n">
-        <v>40.111111111111114</v>
+        <v>29.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.989247311827957</v>
+        <v>2.1264367816091956</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
+      <c r="B3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D3" t="n">
-        <v>325.0</v>
+        <v>330.0</v>
       </c>
       <c r="E3" t="n">
-        <v>46.42857142857143</v>
+        <v>41.25</v>
       </c>
       <c r="F3" t="n">
         <v>3850.0</v>
       </c>
       <c r="G3" t="n">
-        <v>550.0</v>
+        <v>481.25</v>
       </c>
       <c r="H3" t="n">
-        <v>1950.0</v>
+        <v>3050.0</v>
       </c>
       <c r="I3" t="n">
-        <v>278.57142857142856</v>
+        <v>381.25</v>
       </c>
       <c r="J3" t="n">
-        <v>37.42857142857143</v>
+        <v>36.125</v>
       </c>
       <c r="K3" t="n">
-        <v>48.857142857142854</v>
+        <v>33.875</v>
       </c>
       <c r="L3" t="n">
-        <v>32.42857142857143</v>
+        <v>38.25</v>
       </c>
       <c r="M3" t="n">
-        <v>2.1103896103896105</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -377,34 +377,34 @@
         <v>7.0</v>
       </c>
       <c r="D4" t="n">
-        <v>405.0</v>
+        <v>205.0</v>
       </c>
       <c r="E4" t="n">
-        <v>57.857142857142854</v>
+        <v>29.285714285714285</v>
       </c>
       <c r="F4" t="n">
-        <v>7875.0</v>
+        <v>1450.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1125.0</v>
+        <v>207.14285714285714</v>
       </c>
       <c r="H4" t="n">
-        <v>2900.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I4" t="n">
-        <v>414.2857142857143</v>
+        <v>200.0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.857142857142854</v>
+        <v>27.285714285714285</v>
       </c>
       <c r="K4" t="n">
-        <v>40.142857142857146</v>
+        <v>27.428571428571427</v>
       </c>
       <c r="L4" t="n">
-        <v>40.142857142857146</v>
+        <v>18.142857142857142</v>
       </c>
       <c r="M4" t="n">
-        <v>2.9779411764705883</v>
+        <v>1.4335664335664335</v>
       </c>
     </row>
     <row r="5">
@@ -415,37 +415,37 @@
         <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D5" t="n">
-        <v>205.0</v>
+        <v>270.0</v>
       </c>
       <c r="E5" t="n">
-        <v>34.166666666666664</v>
+        <v>38.57142857142857</v>
       </c>
       <c r="F5" t="n">
-        <v>1450.0</v>
+        <v>2100.0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.66666666666666</v>
+        <v>300.0</v>
       </c>
       <c r="H5" t="n">
-        <v>1400.0</v>
+        <v>900.0</v>
       </c>
       <c r="I5" t="n">
-        <v>233.33333333333334</v>
+        <v>128.57142857142858</v>
       </c>
       <c r="J5" t="n">
-        <v>31.833333333333332</v>
+        <v>62.142857142857146</v>
       </c>
       <c r="K5" t="n">
-        <v>32.0</v>
+        <v>35.285714285714285</v>
       </c>
       <c r="L5" t="n">
-        <v>21.166666666666668</v>
+        <v>43.57142857142857</v>
       </c>
       <c r="M5" t="n">
-        <v>1.6666666666666667</v>
+        <v>1.9285714285714286</v>
       </c>
     </row>
     <row r="6">
@@ -456,37 +456,37 @@
         <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D6" t="n">
-        <v>240.0</v>
+        <v>405.0</v>
       </c>
       <c r="E6" t="n">
-        <v>40.0</v>
+        <v>57.857142857142854</v>
       </c>
       <c r="F6" t="n">
-        <v>2600.0</v>
+        <v>7875.0</v>
       </c>
       <c r="G6" t="n">
-        <v>433.3333333333333</v>
+        <v>1125.0</v>
       </c>
       <c r="H6" t="n">
-        <v>2800.0</v>
+        <v>2900.0</v>
       </c>
       <c r="I6" t="n">
-        <v>466.6666666666667</v>
+        <v>414.2857142857143</v>
       </c>
       <c r="J6" t="n">
-        <v>28.0</v>
+        <v>45.857142857142854</v>
       </c>
       <c r="K6" t="n">
-        <v>21.0</v>
+        <v>40.142857142857146</v>
       </c>
       <c r="L6" t="n">
-        <v>26.0</v>
+        <v>40.142857142857146</v>
       </c>
       <c r="M6" t="n">
-        <v>1.4201183431952662</v>
+        <v>2.9779411764705883</v>
       </c>
     </row>
     <row r="7">
@@ -500,34 +500,34 @@
         <v>6.0</v>
       </c>
       <c r="D7" t="n">
-        <v>300.0</v>
+        <v>240.0</v>
       </c>
       <c r="E7" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="F7" t="n">
-        <v>3400.0</v>
+        <v>2600.0</v>
       </c>
       <c r="G7" t="n">
-        <v>566.6666666666666</v>
+        <v>433.3333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>3200.0</v>
+        <v>2800.0</v>
       </c>
       <c r="I7" t="n">
-        <v>533.3333333333334</v>
+        <v>466.6666666666667</v>
       </c>
       <c r="J7" t="n">
-        <v>43.333333333333336</v>
+        <v>28.0</v>
       </c>
       <c r="K7" t="n">
-        <v>23.166666666666668</v>
+        <v>21.0</v>
       </c>
       <c r="L7" t="n">
-        <v>23.666666666666668</v>
+        <v>26.0</v>
       </c>
       <c r="M7" t="n">
-        <v>2.1739130434782608</v>
+        <v>1.4201183431952662</v>
       </c>
     </row>
     <row r="8">
@@ -541,34 +541,34 @@
         <v>6.0</v>
       </c>
       <c r="D8" t="n">
-        <v>220.0</v>
+        <v>300.0</v>
       </c>
       <c r="E8" t="n">
-        <v>36.666666666666664</v>
+        <v>50.0</v>
       </c>
       <c r="F8" t="n">
-        <v>1350.0</v>
+        <v>3400.0</v>
       </c>
       <c r="G8" t="n">
-        <v>225.0</v>
+        <v>566.6666666666666</v>
       </c>
       <c r="H8" t="n">
-        <v>950.0</v>
+        <v>3200.0</v>
       </c>
       <c r="I8" t="n">
-        <v>158.33333333333334</v>
+        <v>533.3333333333334</v>
       </c>
       <c r="J8" t="n">
-        <v>43.833333333333336</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="K8" t="n">
-        <v>57.166666666666664</v>
+        <v>23.166666666666668</v>
       </c>
       <c r="L8" t="n">
-        <v>47.666666666666664</v>
+        <v>23.666666666666668</v>
       </c>
       <c r="M8" t="n">
-        <v>1.71875</v>
+        <v>2.1739130434782608</v>
       </c>
     </row>
     <row r="9">
@@ -582,34 +582,34 @@
         <v>6.0</v>
       </c>
       <c r="D9" t="n">
-        <v>345.0</v>
+        <v>220.0</v>
       </c>
       <c r="E9" t="n">
-        <v>57.5</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="F9" t="n">
-        <v>5050.0</v>
+        <v>1350.0</v>
       </c>
       <c r="G9" t="n">
-        <v>841.6666666666666</v>
+        <v>225.0</v>
       </c>
       <c r="H9" t="n">
-        <v>3800.0</v>
+        <v>950.0</v>
       </c>
       <c r="I9" t="n">
-        <v>633.3333333333334</v>
+        <v>158.33333333333334</v>
       </c>
       <c r="J9" t="n">
-        <v>49.166666666666664</v>
+        <v>43.833333333333336</v>
       </c>
       <c r="K9" t="n">
-        <v>39.0</v>
+        <v>57.166666666666664</v>
       </c>
       <c r="L9" t="n">
-        <v>33.666666666666664</v>
+        <v>47.666666666666664</v>
       </c>
       <c r="M9" t="n">
-        <v>2.574626865671642</v>
+        <v>1.71875</v>
       </c>
     </row>
     <row r="10">
@@ -623,34 +623,34 @@
         <v>6.0</v>
       </c>
       <c r="D10" t="n">
-        <v>230.0</v>
+        <v>345.0</v>
       </c>
       <c r="E10" t="n">
-        <v>38.333333333333336</v>
+        <v>57.5</v>
       </c>
       <c r="F10" t="n">
-        <v>1700.0</v>
+        <v>5050.0</v>
       </c>
       <c r="G10" t="n">
-        <v>283.3333333333333</v>
+        <v>841.6666666666666</v>
       </c>
       <c r="H10" t="n">
-        <v>600.0</v>
+        <v>3800.0</v>
       </c>
       <c r="I10" t="n">
-        <v>100.0</v>
+        <v>633.3333333333334</v>
       </c>
       <c r="J10" t="n">
-        <v>59.833333333333336</v>
+        <v>49.166666666666664</v>
       </c>
       <c r="K10" t="n">
-        <v>33.5</v>
+        <v>39.0</v>
       </c>
       <c r="L10" t="n">
-        <v>43.166666666666664</v>
+        <v>33.666666666666664</v>
       </c>
       <c r="M10" t="n">
-        <v>1.9327731092436975</v>
+        <v>2.574626865671642</v>
       </c>
     </row>
     <row r="11">
@@ -670,28 +670,28 @@
         <v>45.833333333333336</v>
       </c>
       <c r="F11" t="n">
-        <v>2700.0</v>
+        <v>4100.0</v>
       </c>
       <c r="G11" t="n">
-        <v>450.0</v>
+        <v>683.3333333333334</v>
       </c>
       <c r="H11" t="n">
-        <v>3050.0</v>
+        <v>2800.0</v>
       </c>
       <c r="I11" t="n">
-        <v>508.3333333333333</v>
+        <v>466.6666666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>56.833333333333336</v>
+        <v>31.166666666666668</v>
       </c>
       <c r="K11" t="n">
-        <v>49.0</v>
+        <v>61.333333333333336</v>
       </c>
       <c r="L11" t="n">
-        <v>32.5</v>
+        <v>41.833333333333336</v>
       </c>
       <c r="M11" t="n">
-        <v>1.870748299319728</v>
+        <v>2.330508474576271</v>
       </c>
     </row>
     <row r="12">
@@ -705,34 +705,34 @@
         <v>6.0</v>
       </c>
       <c r="D12" t="n">
-        <v>285.0</v>
+        <v>265.0</v>
       </c>
       <c r="E12" t="n">
-        <v>47.5</v>
+        <v>44.166666666666664</v>
       </c>
       <c r="F12" t="n">
-        <v>4150.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G12" t="n">
-        <v>691.6666666666666</v>
+        <v>500.0</v>
       </c>
       <c r="H12" t="n">
-        <v>4200.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I12" t="n">
-        <v>700.0</v>
+        <v>333.3333333333333</v>
       </c>
       <c r="J12" t="n">
-        <v>10.166666666666666</v>
+        <v>32.333333333333336</v>
       </c>
       <c r="K12" t="n">
-        <v>44.0</v>
+        <v>35.333333333333336</v>
       </c>
       <c r="L12" t="n">
-        <v>36.333333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.8269230769230769</v>
+        <v>2.0384615384615383</v>
       </c>
     </row>
     <row r="13">
@@ -746,34 +746,34 @@
         <v>6.0</v>
       </c>
       <c r="D13" t="n">
-        <v>225.0</v>
+        <v>300.0</v>
       </c>
       <c r="E13" t="n">
-        <v>37.5</v>
+        <v>50.0</v>
       </c>
       <c r="F13" t="n">
-        <v>2350.0</v>
+        <v>3600.0</v>
       </c>
       <c r="G13" t="n">
-        <v>391.6666666666667</v>
+        <v>600.0</v>
       </c>
       <c r="H13" t="n">
-        <v>1800.0</v>
+        <v>3300.0</v>
       </c>
       <c r="I13" t="n">
-        <v>300.0</v>
+        <v>550.0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.833333333333336</v>
+        <v>23.166666666666668</v>
       </c>
       <c r="K13" t="n">
-        <v>47.0</v>
+        <v>50.5</v>
       </c>
       <c r="L13" t="n">
-        <v>40.833333333333336</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="M13" t="n">
-        <v>1.9230769230769231</v>
+        <v>2.1739130434782608</v>
       </c>
     </row>
     <row r="14">
@@ -784,37 +784,37 @@
         <v>48</v>
       </c>
       <c r="C14" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D14" t="n">
-        <v>235.0</v>
+        <v>275.0</v>
       </c>
       <c r="E14" t="n">
-        <v>47.0</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="F14" t="n">
-        <v>3800.0</v>
+        <v>2700.0</v>
       </c>
       <c r="G14" t="n">
-        <v>760.0</v>
+        <v>450.0</v>
       </c>
       <c r="H14" t="n">
-        <v>2800.0</v>
+        <v>3050.0</v>
       </c>
       <c r="I14" t="n">
-        <v>560.0</v>
+        <v>508.3333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>26.4</v>
+        <v>56.833333333333336</v>
       </c>
       <c r="K14" t="n">
-        <v>54.6</v>
+        <v>49.0</v>
       </c>
       <c r="L14" t="n">
-        <v>39.2</v>
+        <v>32.5</v>
       </c>
       <c r="M14" t="n">
-        <v>2.422680412371134</v>
+        <v>1.870748299319728</v>
       </c>
     </row>
     <row r="15">
@@ -825,37 +825,37 @@
         <v>49</v>
       </c>
       <c r="C15" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D15" t="n">
-        <v>235.0</v>
+        <v>285.0</v>
       </c>
       <c r="E15" t="n">
-        <v>47.0</v>
+        <v>47.5</v>
       </c>
       <c r="F15" t="n">
-        <v>2800.0</v>
+        <v>4150.0</v>
       </c>
       <c r="G15" t="n">
-        <v>560.0</v>
+        <v>691.6666666666666</v>
       </c>
       <c r="H15" t="n">
-        <v>1800.0</v>
+        <v>4200.0</v>
       </c>
       <c r="I15" t="n">
-        <v>360.0</v>
+        <v>700.0</v>
       </c>
       <c r="J15" t="n">
-        <v>23.4</v>
+        <v>10.166666666666666</v>
       </c>
       <c r="K15" t="n">
-        <v>37.6</v>
+        <v>44.0</v>
       </c>
       <c r="L15" t="n">
-        <v>28.2</v>
+        <v>36.333333333333336</v>
       </c>
       <c r="M15" t="n">
-        <v>2.079646017699115</v>
+        <v>1.8269230769230769</v>
       </c>
     </row>
     <row r="16">
@@ -866,37 +866,37 @@
         <v>50</v>
       </c>
       <c r="C16" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D16" t="n">
-        <v>230.0</v>
+        <v>225.0</v>
       </c>
       <c r="E16" t="n">
-        <v>46.0</v>
+        <v>37.5</v>
       </c>
       <c r="F16" t="n">
-        <v>2600.0</v>
+        <v>2350.0</v>
       </c>
       <c r="G16" t="n">
-        <v>520.0</v>
+        <v>391.6666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>2300.0</v>
+        <v>1800.0</v>
       </c>
       <c r="I16" t="n">
-        <v>460.0</v>
+        <v>300.0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.8</v>
+        <v>63.833333333333336</v>
       </c>
       <c r="K16" t="n">
-        <v>55.4</v>
+        <v>47.0</v>
       </c>
       <c r="L16" t="n">
-        <v>40.0</v>
+        <v>40.833333333333336</v>
       </c>
       <c r="M16" t="n">
-        <v>1.9327731092436975</v>
+        <v>1.9230769230769231</v>
       </c>
     </row>
     <row r="17">
@@ -907,37 +907,37 @@
         <v>51</v>
       </c>
       <c r="C17" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D17" t="n">
-        <v>220.0</v>
+        <v>265.0</v>
       </c>
       <c r="E17" t="n">
-        <v>44.0</v>
+        <v>44.166666666666664</v>
       </c>
       <c r="F17" t="n">
-        <v>4825.0</v>
+        <v>3050.0</v>
       </c>
       <c r="G17" t="n">
-        <v>965.0</v>
+        <v>508.3333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>2100.0</v>
+        <v>1600.0</v>
       </c>
       <c r="I17" t="n">
-        <v>420.0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="J17" t="n">
-        <v>73.4</v>
+        <v>31.333333333333332</v>
       </c>
       <c r="K17" t="n">
-        <v>30.2</v>
+        <v>47.0</v>
       </c>
       <c r="L17" t="n">
-        <v>56.8</v>
+        <v>30.666666666666668</v>
       </c>
       <c r="M17" t="n">
-        <v>2.2448979591836733</v>
+        <v>2.409090909090909</v>
       </c>
     </row>
     <row r="18">
@@ -948,37 +948,37 @@
         <v>52</v>
       </c>
       <c r="C18" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D18" t="n">
-        <v>190.0</v>
+        <v>345.0</v>
       </c>
       <c r="E18" t="n">
-        <v>38.0</v>
+        <v>57.5</v>
       </c>
       <c r="F18" t="n">
-        <v>1700.0</v>
+        <v>5350.0</v>
       </c>
       <c r="G18" t="n">
-        <v>340.0</v>
+        <v>891.6666666666666</v>
       </c>
       <c r="H18" t="n">
-        <v>1600.0</v>
+        <v>3400.0</v>
       </c>
       <c r="I18" t="n">
-        <v>320.0</v>
+        <v>566.6666666666666</v>
       </c>
       <c r="J18" t="n">
-        <v>27.6</v>
+        <v>58.666666666666664</v>
       </c>
       <c r="K18" t="n">
-        <v>43.8</v>
+        <v>38.666666666666664</v>
       </c>
       <c r="L18" t="n">
-        <v>26.8</v>
+        <v>34.5</v>
       </c>
       <c r="M18" t="n">
-        <v>2.021276595744681</v>
+        <v>2.4642857142857144</v>
       </c>
     </row>
     <row r="19">
@@ -992,34 +992,34 @@
         <v>5.0</v>
       </c>
       <c r="D19" t="n">
-        <v>260.0</v>
+        <v>245.0</v>
       </c>
       <c r="E19" t="n">
-        <v>52.0</v>
+        <v>49.0</v>
       </c>
       <c r="F19" t="n">
-        <v>3500.0</v>
+        <v>2550.0</v>
       </c>
       <c r="G19" t="n">
-        <v>700.0</v>
+        <v>510.0</v>
       </c>
       <c r="H19" t="n">
-        <v>2400.0</v>
+        <v>1800.0</v>
       </c>
       <c r="I19" t="n">
-        <v>480.0</v>
+        <v>360.0</v>
       </c>
       <c r="J19" t="n">
-        <v>44.2</v>
+        <v>41.8</v>
       </c>
       <c r="K19" t="n">
-        <v>62.8</v>
+        <v>39.4</v>
       </c>
       <c r="L19" t="n">
-        <v>44.2</v>
+        <v>30.8</v>
       </c>
       <c r="M19" t="n">
-        <v>2.5</v>
+        <v>2.0762711864406778</v>
       </c>
     </row>
     <row r="20">
@@ -1033,34 +1033,34 @@
         <v>5.0</v>
       </c>
       <c r="D20" t="n">
-        <v>255.0</v>
+        <v>220.0</v>
       </c>
       <c r="E20" t="n">
-        <v>51.0</v>
+        <v>44.0</v>
       </c>
       <c r="F20" t="n">
-        <v>3950.0</v>
+        <v>4825.0</v>
       </c>
       <c r="G20" t="n">
-        <v>790.0</v>
+        <v>965.0</v>
       </c>
       <c r="H20" t="n">
-        <v>1600.0</v>
+        <v>2100.0</v>
       </c>
       <c r="I20" t="n">
-        <v>320.0</v>
+        <v>420.0</v>
       </c>
       <c r="J20" t="n">
-        <v>66.0</v>
+        <v>73.4</v>
       </c>
       <c r="K20" t="n">
-        <v>40.4</v>
+        <v>30.2</v>
       </c>
       <c r="L20" t="n">
-        <v>37.0</v>
+        <v>56.8</v>
       </c>
       <c r="M20" t="n">
-        <v>2.383177570093458</v>
+        <v>2.2448979591836733</v>
       </c>
     </row>
     <row r="21">
@@ -1071,37 +1071,37 @@
         <v>55</v>
       </c>
       <c r="C21" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D21" t="n">
-        <v>205.0</v>
+        <v>320.0</v>
       </c>
       <c r="E21" t="n">
-        <v>51.25</v>
+        <v>64.0</v>
       </c>
       <c r="F21" t="n">
-        <v>2550.0</v>
+        <v>7525.0</v>
       </c>
       <c r="G21" t="n">
-        <v>637.5</v>
+        <v>1505.0</v>
       </c>
       <c r="H21" t="n">
-        <v>1500.0</v>
+        <v>4050.0</v>
       </c>
       <c r="I21" t="n">
-        <v>375.0</v>
+        <v>810.0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.25</v>
+        <v>17.0</v>
       </c>
       <c r="K21" t="n">
-        <v>42.0</v>
+        <v>30.2</v>
       </c>
       <c r="L21" t="n">
-        <v>31.25</v>
+        <v>15.0</v>
       </c>
       <c r="M21" t="n">
-        <v>2.1808510638297873</v>
+        <v>2.9357798165137616</v>
       </c>
     </row>
     <row r="22">
@@ -1112,37 +1112,37 @@
         <v>56</v>
       </c>
       <c r="C22" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D22" t="n">
-        <v>280.0</v>
+        <v>260.0</v>
       </c>
       <c r="E22" t="n">
-        <v>70.0</v>
+        <v>52.0</v>
       </c>
       <c r="F22" t="n">
-        <v>7125.0</v>
+        <v>3500.0</v>
       </c>
       <c r="G22" t="n">
-        <v>1781.25</v>
+        <v>700.0</v>
       </c>
       <c r="H22" t="n">
-        <v>3750.0</v>
+        <v>2400.0</v>
       </c>
       <c r="I22" t="n">
-        <v>937.5</v>
+        <v>480.0</v>
       </c>
       <c r="J22" t="n">
-        <v>16.5</v>
+        <v>44.2</v>
       </c>
       <c r="K22" t="n">
-        <v>36.5</v>
+        <v>62.8</v>
       </c>
       <c r="L22" t="n">
-        <v>17.5</v>
+        <v>44.2</v>
       </c>
       <c r="M22" t="n">
-        <v>3.1818181818181817</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="23">

--- a/BUNDES_refereestats.xlsx
+++ b/BUNDES_refereestats.xlsx
@@ -128,58 +128,58 @@
     <t>Florian Badstübner</t>
   </si>
   <si>
+    <t>Felix Zwayer</t>
+  </si>
+  <si>
+    <t>Daniel Schlager</t>
+  </si>
+  <si>
+    <t>Sascha Stegemann</t>
+  </si>
+  <si>
+    <t>Robert Hartmann</t>
+  </si>
+  <si>
+    <t>Daniel Siebert</t>
+  </si>
+  <si>
+    <t>Benjamin Brand</t>
+  </si>
+  <si>
     <t>Bastian Dankert</t>
   </si>
   <si>
+    <t>Christian Dingert</t>
+  </si>
+  <si>
+    <t>Harm Osmers</t>
+  </si>
+  <si>
     <t>Felix Brych</t>
   </si>
   <si>
-    <t>Robert Hartmann</t>
-  </si>
-  <si>
-    <t>Christian Dingert</t>
-  </si>
-  <si>
-    <t>Felix Zwayer</t>
-  </si>
-  <si>
-    <t>Daniel Schlager</t>
-  </si>
-  <si>
-    <t>Harm Osmers</t>
-  </si>
-  <si>
-    <t>Sascha Stegemann</t>
-  </si>
-  <si>
     <t>Tobias Stieler</t>
   </si>
   <si>
-    <t>Daniel Siebert</t>
+    <t>Tobias Reichel</t>
+  </si>
+  <si>
+    <t>Sören Storks</t>
   </si>
   <si>
     <t>Martin Petersen</t>
   </si>
   <si>
-    <t>Tobias Reichel</t>
-  </si>
-  <si>
-    <t>Benjamin Brand</t>
+    <t>Sven Jablonski</t>
+  </si>
+  <si>
+    <t>Tobias Welz</t>
+  </si>
+  <si>
+    <t>Florian Exner</t>
   </si>
   <si>
     <t>Matthias Jöllenbeck</t>
-  </si>
-  <si>
-    <t>Sven Jablonski</t>
-  </si>
-  <si>
-    <t>Tobias Welz</t>
-  </si>
-  <si>
-    <t>Sören Storks</t>
-  </si>
-  <si>
-    <t>Florian Exner</t>
   </si>
   <si>
     <t>Timo Gerach</t>
@@ -292,78 +292,78 @@
         <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D2" t="n">
-        <v>370.0</v>
+        <v>465.0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.25</v>
+        <v>38.75</v>
       </c>
       <c r="F2" t="n">
-        <v>4200.0</v>
+        <v>5100.0</v>
       </c>
       <c r="G2" t="n">
-        <v>525.0</v>
+        <v>425.0</v>
       </c>
       <c r="H2" t="n">
-        <v>2300.0</v>
+        <v>3200.0</v>
       </c>
       <c r="I2" t="n">
-        <v>287.5</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="J2" t="n">
-        <v>40.75</v>
+        <v>37.916666666666664</v>
       </c>
       <c r="K2" t="n">
-        <v>44.125</v>
+        <v>34.75</v>
       </c>
       <c r="L2" t="n">
-        <v>29.75</v>
+        <v>35.0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.1264367816091956</v>
+        <v>1.7816091954022988</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="e">
-        <v>#N/A</v>
+      <c r="B3" t="s">
+        <v>38</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="D3" t="n">
-        <v>330.0</v>
+        <v>540.0</v>
       </c>
       <c r="E3" t="n">
-        <v>41.25</v>
+        <v>49.09090909090909</v>
       </c>
       <c r="F3" t="n">
-        <v>3850.0</v>
+        <v>6600.0</v>
       </c>
       <c r="G3" t="n">
-        <v>481.25</v>
+        <v>600.0</v>
       </c>
       <c r="H3" t="n">
-        <v>3050.0</v>
+        <v>5600.0</v>
       </c>
       <c r="I3" t="n">
-        <v>381.25</v>
+        <v>509.09090909090907</v>
       </c>
       <c r="J3" t="n">
-        <v>36.125</v>
+        <v>43.09090909090909</v>
       </c>
       <c r="K3" t="n">
-        <v>33.875</v>
+        <v>34.72727272727273</v>
       </c>
       <c r="L3" t="n">
-        <v>38.25</v>
+        <v>31.363636363636363</v>
       </c>
       <c r="M3" t="n">
-        <v>2.0</v>
+        <v>2.26890756302521</v>
       </c>
     </row>
     <row r="4">
@@ -371,40 +371,40 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="D4" t="n">
-        <v>205.0</v>
+        <v>460.0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.285714285714285</v>
+        <v>41.81818181818182</v>
       </c>
       <c r="F4" t="n">
-        <v>1450.0</v>
+        <v>3750.0</v>
       </c>
       <c r="G4" t="n">
-        <v>207.14285714285714</v>
+        <v>340.90909090909093</v>
       </c>
       <c r="H4" t="n">
-        <v>1400.0</v>
+        <v>3550.0</v>
       </c>
       <c r="I4" t="n">
-        <v>200.0</v>
+        <v>322.72727272727275</v>
       </c>
       <c r="J4" t="n">
-        <v>27.285714285714285</v>
+        <v>30.0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.428571428571427</v>
+        <v>61.09090909090909</v>
       </c>
       <c r="L4" t="n">
-        <v>18.142857142857142</v>
+        <v>39.09090909090909</v>
       </c>
       <c r="M4" t="n">
-        <v>1.4335664335664335</v>
+        <v>2.0353982300884956</v>
       </c>
     </row>
     <row r="5">
@@ -412,40 +412,40 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="D5" t="n">
-        <v>270.0</v>
+        <v>545.0</v>
       </c>
       <c r="E5" t="n">
-        <v>38.57142857142857</v>
+        <v>49.54545454545455</v>
       </c>
       <c r="F5" t="n">
-        <v>2100.0</v>
+        <v>7400.0</v>
       </c>
       <c r="G5" t="n">
-        <v>300.0</v>
+        <v>672.7272727272727</v>
       </c>
       <c r="H5" t="n">
-        <v>900.0</v>
+        <v>4800.0</v>
       </c>
       <c r="I5" t="n">
-        <v>128.57142857142858</v>
+        <v>436.3636363636364</v>
       </c>
       <c r="J5" t="n">
-        <v>62.142857142857146</v>
+        <v>39.09090909090909</v>
       </c>
       <c r="K5" t="n">
-        <v>35.285714285714285</v>
+        <v>49.54545454545455</v>
       </c>
       <c r="L5" t="n">
-        <v>43.57142857142857</v>
+        <v>39.45454545454545</v>
       </c>
       <c r="M5" t="n">
-        <v>1.9285714285714286</v>
+        <v>2.422222222222222</v>
       </c>
     </row>
     <row r="6">
@@ -453,40 +453,40 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="D6" t="n">
-        <v>405.0</v>
+        <v>540.0</v>
       </c>
       <c r="E6" t="n">
-        <v>57.857142857142854</v>
+        <v>49.09090909090909</v>
       </c>
       <c r="F6" t="n">
-        <v>7875.0</v>
+        <v>8275.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1125.0</v>
+        <v>752.2727272727273</v>
       </c>
       <c r="H6" t="n">
-        <v>2900.0</v>
+        <v>3850.0</v>
       </c>
       <c r="I6" t="n">
-        <v>414.2857142857143</v>
+        <v>350.0</v>
       </c>
       <c r="J6" t="n">
-        <v>45.857142857142854</v>
+        <v>40.81818181818182</v>
       </c>
       <c r="K6" t="n">
-        <v>40.142857142857146</v>
+        <v>36.27272727272727</v>
       </c>
       <c r="L6" t="n">
-        <v>40.142857142857146</v>
+        <v>42.72727272727273</v>
       </c>
       <c r="M6" t="n">
-        <v>2.9779411764705883</v>
+        <v>2.42152466367713</v>
       </c>
     </row>
     <row r="7">
@@ -494,40 +494,40 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="D7" t="n">
-        <v>240.0</v>
+        <v>590.0</v>
       </c>
       <c r="E7" t="n">
-        <v>40.0</v>
+        <v>53.63636363636363</v>
       </c>
       <c r="F7" t="n">
-        <v>2600.0</v>
+        <v>7150.0</v>
       </c>
       <c r="G7" t="n">
-        <v>433.3333333333333</v>
+        <v>650.0</v>
       </c>
       <c r="H7" t="n">
-        <v>2800.0</v>
+        <v>4950.0</v>
       </c>
       <c r="I7" t="n">
-        <v>466.6666666666667</v>
+        <v>450.0</v>
       </c>
       <c r="J7" t="n">
-        <v>28.0</v>
+        <v>28.454545454545453</v>
       </c>
       <c r="K7" t="n">
-        <v>21.0</v>
+        <v>59.18181818181818</v>
       </c>
       <c r="L7" t="n">
-        <v>26.0</v>
+        <v>35.81818181818182</v>
       </c>
       <c r="M7" t="n">
-        <v>1.4201183431952662</v>
+        <v>2.2433460076045626</v>
       </c>
     </row>
     <row r="8">
@@ -535,40 +535,40 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="D8" t="n">
-        <v>300.0</v>
+        <v>405.0</v>
       </c>
       <c r="E8" t="n">
-        <v>50.0</v>
+        <v>36.81818181818182</v>
       </c>
       <c r="F8" t="n">
-        <v>3400.0</v>
+        <v>4350.0</v>
       </c>
       <c r="G8" t="n">
-        <v>566.6666666666666</v>
+        <v>395.45454545454544</v>
       </c>
       <c r="H8" t="n">
-        <v>3200.0</v>
+        <v>3500.0</v>
       </c>
       <c r="I8" t="n">
-        <v>533.3333333333334</v>
+        <v>318.1818181818182</v>
       </c>
       <c r="J8" t="n">
-        <v>43.333333333333336</v>
+        <v>54.81818181818182</v>
       </c>
       <c r="K8" t="n">
-        <v>23.166666666666668</v>
+        <v>44.63636363636363</v>
       </c>
       <c r="L8" t="n">
-        <v>23.666666666666668</v>
+        <v>42.90909090909091</v>
       </c>
       <c r="M8" t="n">
-        <v>2.1739130434782608</v>
+        <v>1.8243243243243243</v>
       </c>
     </row>
     <row r="9">
@@ -576,40 +576,40 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D9" t="n">
-        <v>220.0</v>
+        <v>275.0</v>
       </c>
       <c r="E9" t="n">
-        <v>36.666666666666664</v>
+        <v>27.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1350.0</v>
+        <v>2050.0</v>
       </c>
       <c r="G9" t="n">
-        <v>225.0</v>
+        <v>205.0</v>
       </c>
       <c r="H9" t="n">
-        <v>950.0</v>
+        <v>2300.0</v>
       </c>
       <c r="I9" t="n">
-        <v>158.33333333333334</v>
+        <v>230.0</v>
       </c>
       <c r="J9" t="n">
-        <v>43.833333333333336</v>
+        <v>40.4</v>
       </c>
       <c r="K9" t="n">
-        <v>57.166666666666664</v>
+        <v>28.7</v>
       </c>
       <c r="L9" t="n">
-        <v>47.666666666666664</v>
+        <v>22.2</v>
       </c>
       <c r="M9" t="n">
-        <v>1.71875</v>
+        <v>1.3095238095238095</v>
       </c>
     </row>
     <row r="10">
@@ -617,40 +617,40 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D10" t="n">
-        <v>345.0</v>
+        <v>405.0</v>
       </c>
       <c r="E10" t="n">
-        <v>57.5</v>
+        <v>40.5</v>
       </c>
       <c r="F10" t="n">
-        <v>5050.0</v>
+        <v>5100.0</v>
       </c>
       <c r="G10" t="n">
-        <v>841.6666666666666</v>
+        <v>510.0</v>
       </c>
       <c r="H10" t="n">
-        <v>3800.0</v>
+        <v>5300.0</v>
       </c>
       <c r="I10" t="n">
-        <v>633.3333333333334</v>
+        <v>530.0</v>
       </c>
       <c r="J10" t="n">
-        <v>49.166666666666664</v>
+        <v>28.8</v>
       </c>
       <c r="K10" t="n">
-        <v>39.0</v>
+        <v>23.0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.666666666666664</v>
+        <v>20.7</v>
       </c>
       <c r="M10" t="n">
-        <v>2.574626865671642</v>
+        <v>1.5517241379310345</v>
       </c>
     </row>
     <row r="11">
@@ -658,40 +658,40 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D11" t="n">
-        <v>275.0</v>
+        <v>425.0</v>
       </c>
       <c r="E11" t="n">
-        <v>45.833333333333336</v>
+        <v>42.5</v>
       </c>
       <c r="F11" t="n">
+        <v>5150.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>515.0</v>
+      </c>
+      <c r="H11" t="n">
         <v>4100.0</v>
       </c>
-      <c r="G11" t="n">
-        <v>683.3333333333334</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2800.0</v>
-      </c>
       <c r="I11" t="n">
-        <v>466.6666666666667</v>
+        <v>410.0</v>
       </c>
       <c r="J11" t="n">
-        <v>31.166666666666668</v>
+        <v>38.9</v>
       </c>
       <c r="K11" t="n">
-        <v>61.333333333333336</v>
+        <v>39.9</v>
       </c>
       <c r="L11" t="n">
-        <v>41.833333333333336</v>
+        <v>38.1</v>
       </c>
       <c r="M11" t="n">
-        <v>2.330508474576271</v>
+        <v>2.0334928229665072</v>
       </c>
     </row>
     <row r="12">
@@ -699,40 +699,40 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D12" t="n">
-        <v>265.0</v>
+        <v>360.0</v>
       </c>
       <c r="E12" t="n">
-        <v>44.166666666666664</v>
+        <v>36.0</v>
       </c>
       <c r="F12" t="n">
-        <v>3000.0</v>
+        <v>2600.0</v>
       </c>
       <c r="G12" t="n">
-        <v>500.0</v>
+        <v>260.0</v>
       </c>
       <c r="H12" t="n">
-        <v>2000.0</v>
+        <v>1100.0</v>
       </c>
       <c r="I12" t="n">
-        <v>333.3333333333333</v>
+        <v>110.0</v>
       </c>
       <c r="J12" t="n">
-        <v>32.333333333333336</v>
+        <v>62.0</v>
       </c>
       <c r="K12" t="n">
-        <v>35.333333333333336</v>
+        <v>33.5</v>
       </c>
       <c r="L12" t="n">
-        <v>27.5</v>
+        <v>46.0</v>
       </c>
       <c r="M12" t="n">
-        <v>2.0384615384615383</v>
+        <v>1.6822429906542056</v>
       </c>
     </row>
     <row r="13">
@@ -740,40 +740,40 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D13" t="n">
-        <v>300.0</v>
+        <v>425.0</v>
       </c>
       <c r="E13" t="n">
-        <v>50.0</v>
+        <v>42.5</v>
       </c>
       <c r="F13" t="n">
-        <v>3600.0</v>
+        <v>4800.0</v>
       </c>
       <c r="G13" t="n">
-        <v>600.0</v>
+        <v>480.0</v>
       </c>
       <c r="H13" t="n">
-        <v>3300.0</v>
+        <v>3800.0</v>
       </c>
       <c r="I13" t="n">
-        <v>550.0</v>
+        <v>380.0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.166666666666668</v>
+        <v>38.6</v>
       </c>
       <c r="K13" t="n">
-        <v>50.5</v>
+        <v>42.0</v>
       </c>
       <c r="L13" t="n">
-        <v>36.666666666666664</v>
+        <v>24.4</v>
       </c>
       <c r="M13" t="n">
-        <v>2.1739130434782608</v>
+        <v>1.9953051643192488</v>
       </c>
     </row>
     <row r="14">
@@ -781,40 +781,40 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D14" t="n">
-        <v>275.0</v>
+        <v>435.0</v>
       </c>
       <c r="E14" t="n">
-        <v>45.833333333333336</v>
+        <v>43.5</v>
       </c>
       <c r="F14" t="n">
-        <v>2700.0</v>
+        <v>5150.0</v>
       </c>
       <c r="G14" t="n">
-        <v>450.0</v>
+        <v>515.0</v>
       </c>
       <c r="H14" t="n">
-        <v>3050.0</v>
+        <v>5100.0</v>
       </c>
       <c r="I14" t="n">
-        <v>508.3333333333333</v>
+        <v>510.0</v>
       </c>
       <c r="J14" t="n">
-        <v>56.833333333333336</v>
+        <v>32.9</v>
       </c>
       <c r="K14" t="n">
-        <v>49.0</v>
+        <v>38.2</v>
       </c>
       <c r="L14" t="n">
-        <v>32.5</v>
+        <v>37.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.870748299319728</v>
+        <v>1.69921875</v>
       </c>
     </row>
     <row r="15">
@@ -822,40 +822,40 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="D15" t="n">
-        <v>285.0</v>
+        <v>390.0</v>
       </c>
       <c r="E15" t="n">
-        <v>47.5</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="F15" t="n">
-        <v>4150.0</v>
+        <v>6325.0</v>
       </c>
       <c r="G15" t="n">
-        <v>691.6666666666666</v>
+        <v>702.7777777777778</v>
       </c>
       <c r="H15" t="n">
-        <v>4200.0</v>
+        <v>3300.0</v>
       </c>
       <c r="I15" t="n">
-        <v>700.0</v>
+        <v>366.6666666666667</v>
       </c>
       <c r="J15" t="n">
-        <v>10.166666666666666</v>
+        <v>62.111111111111114</v>
       </c>
       <c r="K15" t="n">
-        <v>44.0</v>
+        <v>31.444444444444443</v>
       </c>
       <c r="L15" t="n">
-        <v>36.333333333333336</v>
+        <v>46.22222222222222</v>
       </c>
       <c r="M15" t="n">
-        <v>1.8269230769230769</v>
+        <v>2.154696132596685</v>
       </c>
     </row>
     <row r="16">
@@ -863,40 +863,40 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="D16" t="n">
-        <v>225.0</v>
+        <v>595.0</v>
       </c>
       <c r="E16" t="n">
-        <v>37.5</v>
+        <v>66.11111111111111</v>
       </c>
       <c r="F16" t="n">
-        <v>2350.0</v>
+        <v>10700.0</v>
       </c>
       <c r="G16" t="n">
-        <v>391.6666666666667</v>
+        <v>1188.888888888889</v>
       </c>
       <c r="H16" t="n">
-        <v>1800.0</v>
+        <v>6500.0</v>
       </c>
       <c r="I16" t="n">
-        <v>300.0</v>
+        <v>722.2222222222222</v>
       </c>
       <c r="J16" t="n">
-        <v>63.833333333333336</v>
+        <v>50.55555555555556</v>
       </c>
       <c r="K16" t="n">
-        <v>47.0</v>
+        <v>40.111111111111114</v>
       </c>
       <c r="L16" t="n">
-        <v>40.833333333333336</v>
+        <v>28.11111111111111</v>
       </c>
       <c r="M16" t="n">
-        <v>1.9230769230769231</v>
+        <v>2.6096491228070176</v>
       </c>
     </row>
     <row r="17">
@@ -904,40 +904,40 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="D17" t="n">
-        <v>265.0</v>
+        <v>435.0</v>
       </c>
       <c r="E17" t="n">
-        <v>44.166666666666664</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="F17" t="n">
-        <v>3050.0</v>
+        <v>6250.0</v>
       </c>
       <c r="G17" t="n">
-        <v>508.3333333333333</v>
+        <v>694.4444444444445</v>
       </c>
       <c r="H17" t="n">
-        <v>1600.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I17" t="n">
-        <v>266.6666666666667</v>
+        <v>444.44444444444446</v>
       </c>
       <c r="J17" t="n">
-        <v>31.333333333333332</v>
+        <v>55.111111111111114</v>
       </c>
       <c r="K17" t="n">
-        <v>47.0</v>
+        <v>40.111111111111114</v>
       </c>
       <c r="L17" t="n">
-        <v>30.666666666666668</v>
+        <v>37.333333333333336</v>
       </c>
       <c r="M17" t="n">
-        <v>2.409090909090909</v>
+        <v>2.230769230769231</v>
       </c>
     </row>
     <row r="18">
@@ -945,40 +945,40 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D18" t="n">
-        <v>345.0</v>
+        <v>415.0</v>
       </c>
       <c r="E18" t="n">
-        <v>57.5</v>
+        <v>51.875</v>
       </c>
       <c r="F18" t="n">
-        <v>5350.0</v>
+        <v>4950.0</v>
       </c>
       <c r="G18" t="n">
-        <v>891.6666666666666</v>
+        <v>618.75</v>
       </c>
       <c r="H18" t="n">
-        <v>3400.0</v>
+        <v>3500.0</v>
       </c>
       <c r="I18" t="n">
-        <v>566.6666666666666</v>
+        <v>437.5</v>
       </c>
       <c r="J18" t="n">
-        <v>58.666666666666664</v>
+        <v>45.75</v>
       </c>
       <c r="K18" t="n">
-        <v>38.666666666666664</v>
+        <v>37.0</v>
       </c>
       <c r="L18" t="n">
-        <v>34.5</v>
+        <v>27.625</v>
       </c>
       <c r="M18" t="n">
-        <v>2.4642857142857144</v>
+        <v>2.2311827956989245</v>
       </c>
     </row>
     <row r="19">
@@ -986,40 +986,40 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D19" t="n">
-        <v>245.0</v>
+        <v>455.0</v>
       </c>
       <c r="E19" t="n">
-        <v>49.0</v>
+        <v>56.875</v>
       </c>
       <c r="F19" t="n">
-        <v>2550.0</v>
+        <v>9125.0</v>
       </c>
       <c r="G19" t="n">
-        <v>510.0</v>
+        <v>1140.625</v>
       </c>
       <c r="H19" t="n">
-        <v>1800.0</v>
+        <v>5450.0</v>
       </c>
       <c r="I19" t="n">
-        <v>360.0</v>
+        <v>681.25</v>
       </c>
       <c r="J19" t="n">
-        <v>41.8</v>
+        <v>26.625</v>
       </c>
       <c r="K19" t="n">
-        <v>39.4</v>
+        <v>33.875</v>
       </c>
       <c r="L19" t="n">
-        <v>30.8</v>
+        <v>24.0</v>
       </c>
       <c r="M19" t="n">
-        <v>2.0762711864406778</v>
+        <v>2.7245508982035926</v>
       </c>
     </row>
     <row r="20">
@@ -1027,40 +1027,40 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D20" t="n">
-        <v>220.0</v>
+        <v>385.0</v>
       </c>
       <c r="E20" t="n">
-        <v>44.0</v>
+        <v>48.125</v>
       </c>
       <c r="F20" t="n">
-        <v>4825.0</v>
+        <v>4850.0</v>
       </c>
       <c r="G20" t="n">
-        <v>965.0</v>
+        <v>606.25</v>
       </c>
       <c r="H20" t="n">
-        <v>2100.0</v>
+        <v>2700.0</v>
       </c>
       <c r="I20" t="n">
-        <v>420.0</v>
+        <v>337.5</v>
       </c>
       <c r="J20" t="n">
-        <v>73.4</v>
+        <v>34.75</v>
       </c>
       <c r="K20" t="n">
-        <v>30.2</v>
+        <v>45.25</v>
       </c>
       <c r="L20" t="n">
-        <v>56.8</v>
+        <v>29.125</v>
       </c>
       <c r="M20" t="n">
-        <v>2.2448979591836733</v>
+        <v>2.467948717948718</v>
       </c>
     </row>
     <row r="21">
@@ -1068,81 +1068,81 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D21" t="n">
-        <v>320.0</v>
+        <v>370.0</v>
       </c>
       <c r="E21" t="n">
-        <v>64.0</v>
+        <v>46.25</v>
       </c>
       <c r="F21" t="n">
-        <v>7525.0</v>
+        <v>4500.0</v>
       </c>
       <c r="G21" t="n">
-        <v>1505.0</v>
+        <v>562.5</v>
       </c>
       <c r="H21" t="n">
-        <v>4050.0</v>
+        <v>3200.0</v>
       </c>
       <c r="I21" t="n">
-        <v>810.0</v>
+        <v>400.0</v>
       </c>
       <c r="J21" t="n">
-        <v>17.0</v>
+        <v>49.625</v>
       </c>
       <c r="K21" t="n">
-        <v>30.2</v>
+        <v>53.25</v>
       </c>
       <c r="L21" t="n">
-        <v>15.0</v>
+        <v>38.375</v>
       </c>
       <c r="M21" t="n">
-        <v>2.9357798165137616</v>
+        <v>2.2560975609756095</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="s">
-        <v>56</v>
+      <c r="B22" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C22" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D22" t="n">
-        <v>260.0</v>
+        <v>330.0</v>
       </c>
       <c r="E22" t="n">
-        <v>52.0</v>
+        <v>41.25</v>
       </c>
       <c r="F22" t="n">
-        <v>3500.0</v>
+        <v>3850.0</v>
       </c>
       <c r="G22" t="n">
-        <v>700.0</v>
+        <v>481.25</v>
       </c>
       <c r="H22" t="n">
-        <v>2400.0</v>
+        <v>3050.0</v>
       </c>
       <c r="I22" t="n">
-        <v>480.0</v>
+        <v>381.25</v>
       </c>
       <c r="J22" t="n">
-        <v>44.2</v>
+        <v>36.125</v>
       </c>
       <c r="K22" t="n">
-        <v>62.8</v>
+        <v>33.875</v>
       </c>
       <c r="L22" t="n">
-        <v>44.2</v>
+        <v>38.25</v>
       </c>
       <c r="M22" t="n">
-        <v>2.5</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
@@ -1153,37 +1153,37 @@
         <v>57</v>
       </c>
       <c r="C23" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D23" t="n">
-        <v>170.0</v>
+        <v>250.0</v>
       </c>
       <c r="E23" t="n">
-        <v>56.666666666666664</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="F23" t="n">
-        <v>2800.0</v>
+        <v>3600.0</v>
       </c>
       <c r="G23" t="n">
-        <v>933.3333333333334</v>
+        <v>600.0</v>
       </c>
       <c r="H23" t="n">
-        <v>2000.0</v>
+        <v>3200.0</v>
       </c>
       <c r="I23" t="n">
-        <v>666.6666666666666</v>
+        <v>533.3333333333334</v>
       </c>
       <c r="J23" t="n">
-        <v>53.0</v>
+        <v>49.166666666666664</v>
       </c>
       <c r="K23" t="n">
-        <v>60.0</v>
+        <v>44.0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.0</v>
+        <v>35.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.9101123595505618</v>
+        <v>1.5723270440251573</v>
       </c>
     </row>
     <row r="24">
@@ -1194,10 +1194,10 @@
         <v>58</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D24" t="n">
-        <v>30.0</v>
+        <v>60.0</v>
       </c>
       <c r="E24" t="n">
         <v>30.0</v>
@@ -1206,25 +1206,25 @@
         <v>200.0</v>
       </c>
       <c r="G24" t="n">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="H24" t="n">
-        <v>200.0</v>
+        <v>400.0</v>
       </c>
       <c r="I24" t="n">
         <v>200.0</v>
       </c>
       <c r="J24" t="n">
-        <v>38.0</v>
+        <v>29.5</v>
       </c>
       <c r="K24" t="n">
-        <v>38.0</v>
+        <v>19.0</v>
       </c>
       <c r="L24" t="n">
-        <v>38.0</v>
+        <v>29.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.3043478260869565</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="25">
@@ -1235,37 +1235,37 @@
         <v>59</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D25" t="n">
-        <v>10.0</v>
+        <v>105.0</v>
       </c>
       <c r="E25" t="n">
-        <v>10.0</v>
+        <v>52.5</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
+        <v>1950.0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0</v>
+        <v>975.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J25" t="n">
-        <v>54.0</v>
+        <v>50.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="L25" t="n">
-        <v>54.0</v>
+        <v>44.0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6666666666666666</v>
+        <v>2.9166666666666665</v>
       </c>
     </row>
     <row r="26">
